--- a/prediction_results.xlsx
+++ b/prediction_results.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Formation_features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B27947-887D-49D9-8855-153955055F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489355D-D675-4782-A766-445345DCBD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$D$179</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$P$2:$P$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -456,7 +454,7 @@
   <dimension ref="A1:P179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,328 +516,328 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D2" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E2" s="1">
-        <v>4.0599999999999996</v>
+        <v>3.88</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>477</v>
+        <v>651</v>
       </c>
       <c r="K2" s="2">
-        <v>525.30870000000004</v>
+        <v>632.81889999999999</v>
       </c>
       <c r="L2" s="2">
-        <v>523.46019833185699</v>
+        <v>718.25627289901195</v>
       </c>
       <c r="M2" s="2">
-        <v>551.09751426168805</v>
+        <v>670.762251394896</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">_xlfn.STDEV.S(IF($B$2:$B$179=B2,$J$2:$J$179))</f>
-        <v>60.994535274345132</v>
+        <v>36.909799963334038</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">AVERAGE(IF($B$2:$B$179=B2,$J$2:$J$179))</f>
-        <v>530.66666666666663</v>
+        <v>684.33333333333337</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P33" si="0">N2/O2*SQRT(2/PI())*100</f>
-        <v>9.1708413295375166</v>
+        <f>N2/O2*SQRT(2/PI())*100</f>
+        <v>4.3034232147685909</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>4.0599999999999996</v>
+        <v>3.88</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>597</v>
+        <v>724</v>
       </c>
       <c r="K3" s="2">
-        <v>525.30870000000004</v>
+        <v>632.81889999999999</v>
       </c>
       <c r="L3" s="2">
-        <v>679.07385848751198</v>
+        <v>806.22742080567502</v>
       </c>
       <c r="M3" s="2">
-        <v>725.50633003554003</v>
+        <v>659.77455384687903</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3">_xlfn.STDEV.S(IF($B$2:$B$179=B3,$J$2:$J$179))</f>
-        <v>60.994535274345132</v>
+        <v>36.909799963334038</v>
       </c>
       <c r="O3" cm="1">
         <f t="array" ref="O3">AVERAGE(IF($B$2:$B$179=B3,$J$2:$J$179))</f>
-        <v>530.66666666666663</v>
+        <v>684.33333333333337</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
-        <v>9.1708413295375166</v>
+        <f>N3/O3*SQRT(2/PI())*100</f>
+        <v>4.3034232147685909</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E4" s="1">
-        <v>4.0599999999999996</v>
+        <v>3.88</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>518</v>
+        <v>678</v>
       </c>
       <c r="K4" s="2">
-        <v>525.30870000000004</v>
+        <v>632.81889999999999</v>
       </c>
       <c r="L4" s="2">
-        <v>502.51610696728198</v>
+        <v>785.17938345302298</v>
       </c>
       <c r="M4" s="2">
-        <v>551.09751426168805</v>
+        <v>680.75132040108394</v>
       </c>
       <c r="N4" cm="1">
         <f t="array" ref="N4">_xlfn.STDEV.S(IF($B$2:$B$179=B4,$J$2:$J$179))</f>
-        <v>60.994535274345132</v>
+        <v>36.909799963334038</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" ref="O4">AVERAGE(IF($B$2:$B$179=B4,$J$2:$J$179))</f>
-        <v>530.66666666666663</v>
+        <v>684.33333333333337</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>9.1708413295375166</v>
+        <f>N4/O4*SQRT(2/PI())*100</f>
+        <v>4.3034232147685909</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.34079999999999999</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1">
         <v>72</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>650</v>
+        <v>1097</v>
       </c>
       <c r="K5" s="2">
-        <v>686.90923999999995</v>
+        <v>1022.5518</v>
       </c>
       <c r="L5" s="2">
-        <v>618.04379592465602</v>
+        <v>877.37307745604596</v>
       </c>
       <c r="M5" s="2">
-        <v>641.24144179913401</v>
+        <v>887.41467082709801</v>
       </c>
       <c r="N5" cm="1">
         <f t="array" ref="N5">_xlfn.STDEV.S(IF($B$2:$B$179=B5,$J$2:$J$179))</f>
-        <v>15.88500340992514</v>
+        <v>37.749172176353746</v>
       </c>
       <c r="O5" cm="1">
         <f t="array" ref="O5">AVERAGE(IF($B$2:$B$179=B5,$J$2:$J$179))</f>
-        <v>631.66666666666663</v>
+        <v>1137</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>2.0065011560549033</v>
+        <f>N5/O5*SQRT(2/PI())*100</f>
+        <v>2.6490309289887208</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.34079999999999999</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E6" s="1">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1">
         <v>72</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>623</v>
+        <v>1172</v>
       </c>
       <c r="K6" s="2">
-        <v>686.90923999999995</v>
+        <v>1022.5518</v>
       </c>
       <c r="L6" s="2">
-        <v>631.414147396114</v>
+        <v>1095.6094321355099</v>
       </c>
       <c r="M6" s="2">
-        <v>647.91067836224499</v>
+        <v>953.36364856113698</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">_xlfn.STDEV.S(IF($B$2:$B$179=B6,$J$2:$J$179))</f>
-        <v>15.88500340992514</v>
+        <v>37.749172176353746</v>
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">AVERAGE(IF($B$2:$B$179=B6,$J$2:$J$179))</f>
-        <v>631.66666666666663</v>
+        <v>1137</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>2.0065011560549033</v>
+        <f>N6/O6*SQRT(2/PI())*100</f>
+        <v>2.6490309289887208</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>0.34079999999999999</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1">
         <v>72</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1">
-        <v>622</v>
+        <v>1142</v>
       </c>
       <c r="K7" s="2">
-        <v>686.90923999999995</v>
+        <v>1022.5518</v>
       </c>
       <c r="L7" s="2">
-        <v>680.06303358870298</v>
+        <v>1058.95141108449</v>
       </c>
       <c r="M7" s="2">
-        <v>663.63618587620999</v>
+        <v>981.83340177313903</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" ref="N7">_xlfn.STDEV.S(IF($B$2:$B$179=B7,$J$2:$J$179))</f>
-        <v>15.88500340992514</v>
+        <v>37.749172176353746</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" ref="O7">AVERAGE(IF($B$2:$B$179=B7,$J$2:$J$179))</f>
-        <v>631.66666666666663</v>
+        <v>1137</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>2.0065011560549033</v>
+        <f>N7/O7*SQRT(2/PI())*100</f>
+        <v>2.6490309289887208</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>4.7999999999999996E-3</v>
@@ -848,51 +846,51 @@
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>3.64</v>
+        <v>3.61</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1">
         <v>72</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>736</v>
+        <v>573</v>
       </c>
       <c r="K8" s="2">
-        <v>642.62774999999999</v>
+        <v>665.71090000000004</v>
       </c>
       <c r="L8" s="2">
-        <v>650.67817985897898</v>
+        <v>631.23677941378196</v>
       </c>
       <c r="M8" s="2">
-        <v>617.46173519520698</v>
+        <v>659.74593679246595</v>
       </c>
       <c r="N8" cm="1">
         <f t="array" ref="N8">_xlfn.STDEV.S(IF($B$2:$B$179=B8,$J$2:$J$179))</f>
-        <v>76.367532368147138</v>
+        <v>33.181320046074113</v>
       </c>
       <c r="O8" cm="1">
         <f t="array" ref="O8">AVERAGE(IF($B$2:$B$179=B8,$J$2:$J$179))</f>
-        <v>682</v>
+        <v>577</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>8.9343805019292795</v>
+        <f>N8/O8*SQRT(2/PI())*100</f>
+        <v>4.5883644665201313</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>4.7999999999999996E-3</v>
@@ -901,1792 +899,1792 @@
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>3.64</v>
+        <v>3.61</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
         <v>72</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="K9" s="2">
-        <v>642.62774999999999</v>
+        <v>665.71090000000004</v>
       </c>
       <c r="L9" s="2">
-        <v>611.73894775551196</v>
+        <v>594.04305817403895</v>
       </c>
       <c r="M9" s="2">
-        <v>620.17452532227901</v>
+        <v>653.89010919305701</v>
       </c>
       <c r="N9" cm="1">
         <f t="array" ref="N9">_xlfn.STDEV.S(IF($B$2:$B$179=B9,$J$2:$J$179))</f>
-        <v>76.367532368147138</v>
+        <v>33.181320046074113</v>
       </c>
       <c r="O9" cm="1">
         <f t="array" ref="O9">AVERAGE(IF($B$2:$B$179=B9,$J$2:$J$179))</f>
-        <v>682</v>
+        <v>577</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
-        <v>8.9343805019292795</v>
+        <f>N9/O9*SQRT(2/PI())*100</f>
+        <v>4.5883644665201313</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>3.9</v>
+        <v>3.61</v>
       </c>
       <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="1">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
       <c r="J10" s="1">
-        <v>690</v>
+        <v>546</v>
       </c>
       <c r="K10" s="2">
-        <v>628.06740000000002</v>
+        <v>665.71090000000004</v>
       </c>
       <c r="L10" s="2">
-        <v>669.10421465636898</v>
+        <v>658.55127832162998</v>
       </c>
       <c r="M10" s="2">
-        <v>610.842261102203</v>
+        <v>662.80953935426703</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" ref="N10">_xlfn.STDEV.S(IF($B$2:$B$179=B10,$J$2:$J$179))</f>
-        <v>68.383721259765721</v>
+        <v>33.181320046074113</v>
       </c>
       <c r="O10" cm="1">
         <f t="array" ref="O10">AVERAGE(IF($B$2:$B$179=B10,$J$2:$J$179))</f>
-        <v>613.66666666666663</v>
+        <v>577</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
-        <v>8.8911975127779037</v>
+        <f>N10/O10*SQRT(2/PI())*100</f>
+        <v>4.5883644665201313</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>3.9</v>
+        <v>3.64</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>35</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>558</v>
+        <v>736</v>
       </c>
       <c r="K11" s="2">
-        <v>628.06740000000002</v>
+        <v>642.62774999999999</v>
       </c>
       <c r="L11" s="2">
-        <v>613.609764808661</v>
+        <v>650.67817985897898</v>
       </c>
       <c r="M11" s="2">
-        <v>618.67633467545295</v>
+        <v>617.46173519520698</v>
       </c>
       <c r="N11" cm="1">
         <f t="array" ref="N11">_xlfn.STDEV.S(IF($B$2:$B$179=B11,$J$2:$J$179))</f>
-        <v>68.383721259765721</v>
+        <v>76.367532368147138</v>
       </c>
       <c r="O11" cm="1">
         <f t="array" ref="O11">AVERAGE(IF($B$2:$B$179=B11,$J$2:$J$179))</f>
-        <v>613.66666666666663</v>
+        <v>682</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
-        <v>8.8911975127779037</v>
+        <f>N11/O11*SQRT(2/PI())*100</f>
+        <v>8.9343805019292795</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>3.9</v>
+        <v>3.64</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
         <v>35</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="K12" s="2">
-        <v>628.06740000000002</v>
+        <v>642.62774999999999</v>
       </c>
       <c r="L12" s="2">
-        <v>610.66612347010596</v>
+        <v>611.73894775551196</v>
       </c>
       <c r="M12" s="2">
-        <v>614.39533634720397</v>
+        <v>620.17452532227901</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" ref="N12">_xlfn.STDEV.S(IF($B$2:$B$179=B12,$J$2:$J$179))</f>
-        <v>68.383721259765721</v>
+        <v>76.367532368147138</v>
       </c>
       <c r="O12" cm="1">
         <f t="array" ref="O12">AVERAGE(IF($B$2:$B$179=B12,$J$2:$J$179))</f>
-        <v>613.66666666666663</v>
+        <v>682</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
-        <v>8.8911975127779037</v>
+        <f>N12/O12*SQRT(2/PI())*100</f>
+        <v>8.9343805019292795</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="B13" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>7.9200000000000007E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>3.81</v>
+        <v>3.78</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>683</v>
+        <v>999</v>
       </c>
       <c r="K13" s="2">
-        <v>644.52184999999997</v>
+        <v>1071.7318</v>
       </c>
       <c r="L13" s="2">
-        <v>634.28144762698003</v>
+        <v>994.14396876740796</v>
       </c>
       <c r="M13" s="2">
-        <v>650.87750272421204</v>
+        <v>1081.3927154456601</v>
       </c>
       <c r="N13" cm="1">
         <f t="array" ref="N13">_xlfn.STDEV.S(IF($B$2:$B$179=B13,$J$2:$J$179))</f>
-        <v>27.300793639257691</v>
+        <v>50.089919145472777</v>
       </c>
       <c r="O13" cm="1">
         <f t="array" ref="O13">AVERAGE(IF($B$2:$B$179=B13,$J$2:$J$179))</f>
-        <v>678.33333333333337</v>
+        <v>1036</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
-        <v>3.2112356377044891</v>
+        <f>N13/O13*SQRT(2/PI())*100</f>
+        <v>3.8577194148683964</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="B14" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D14" s="1">
-        <v>7.9200000000000007E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>3.81</v>
+        <v>3.78</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>703</v>
+        <v>1016</v>
       </c>
       <c r="K14" s="2">
-        <v>644.52184999999997</v>
+        <v>1071.7318</v>
       </c>
       <c r="L14" s="2">
-        <v>624.35826627424206</v>
+        <v>944.35705594118599</v>
       </c>
       <c r="M14" s="2">
-        <v>647.41566350665198</v>
+        <v>1011.59089623165</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" ref="N14">_xlfn.STDEV.S(IF($B$2:$B$179=B14,$J$2:$J$179))</f>
-        <v>27.300793639257691</v>
+        <v>50.089919145472777</v>
       </c>
       <c r="O14" cm="1">
         <f t="array" ref="O14">AVERAGE(IF($B$2:$B$179=B14,$J$2:$J$179))</f>
-        <v>678.33333333333337</v>
+        <v>1036</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
-        <v>3.2112356377044891</v>
+        <f>N14/O14*SQRT(2/PI())*100</f>
+        <v>3.8577194148683964</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="B15" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D15" s="1">
-        <v>7.9200000000000007E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>3.81</v>
+        <v>3.78</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>649</v>
+        <v>1093</v>
       </c>
       <c r="K15" s="2">
-        <v>644.52184999999997</v>
+        <v>1071.7318</v>
       </c>
       <c r="L15" s="2">
-        <v>655.26312386371899</v>
+        <v>1033.3316231153699</v>
       </c>
       <c r="M15" s="2">
-        <v>651.08177504539003</v>
+        <v>1093.79214354904</v>
       </c>
       <c r="N15" cm="1">
         <f t="array" ref="N15">_xlfn.STDEV.S(IF($B$2:$B$179=B15,$J$2:$J$179))</f>
-        <v>27.300793639257691</v>
+        <v>50.089919145472777</v>
       </c>
       <c r="O15" cm="1">
         <f t="array" ref="O15">AVERAGE(IF($B$2:$B$179=B15,$J$2:$J$179))</f>
-        <v>678.33333333333337</v>
+        <v>1036</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
-        <v>3.2112356377044891</v>
+        <f>N15/O15*SQRT(2/PI())*100</f>
+        <v>3.8577194148683964</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D16" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>3.88</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>651</v>
+        <v>477</v>
       </c>
       <c r="K16" s="2">
-        <v>632.81889999999999</v>
+        <v>525.30870000000004</v>
       </c>
       <c r="L16" s="2">
-        <v>718.25627289901195</v>
+        <v>523.46019833185699</v>
       </c>
       <c r="M16" s="2">
-        <v>670.762251394896</v>
+        <v>551.09751426168805</v>
       </c>
       <c r="N16" cm="1">
         <f t="array" ref="N16">_xlfn.STDEV.S(IF($B$2:$B$179=B16,$J$2:$J$179))</f>
-        <v>36.909799963334038</v>
+        <v>60.994535274345132</v>
       </c>
       <c r="O16" cm="1">
         <f t="array" ref="O16">AVERAGE(IF($B$2:$B$179=B16,$J$2:$J$179))</f>
-        <v>684.33333333333337</v>
+        <v>530.66666666666663</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
-        <v>4.3034232147685909</v>
+        <f>N16/O16*SQRT(2/PI())*100</f>
+        <v>9.1708413295375166</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>3.88</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>724</v>
+        <v>597</v>
       </c>
       <c r="K17" s="2">
-        <v>632.81889999999999</v>
+        <v>525.30870000000004</v>
       </c>
       <c r="L17" s="2">
-        <v>806.22742080567502</v>
+        <v>679.07385848751198</v>
       </c>
       <c r="M17" s="2">
-        <v>659.77455384687903</v>
+        <v>725.50633003554003</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" ref="N17">_xlfn.STDEV.S(IF($B$2:$B$179=B17,$J$2:$J$179))</f>
-        <v>36.909799963334038</v>
+        <v>60.994535274345132</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" ref="O17">AVERAGE(IF($B$2:$B$179=B17,$J$2:$J$179))</f>
-        <v>684.33333333333337</v>
+        <v>530.66666666666663</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
-        <v>4.3034232147685909</v>
+        <f>N17/O17*SQRT(2/PI())*100</f>
+        <v>9.1708413295375166</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D18" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>3.88</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>678</v>
+        <v>518</v>
       </c>
       <c r="K18" s="2">
-        <v>632.81889999999999</v>
+        <v>525.30870000000004</v>
       </c>
       <c r="L18" s="2">
-        <v>785.17938345302298</v>
+        <v>502.51610696728198</v>
       </c>
       <c r="M18" s="2">
-        <v>680.75132040108394</v>
+        <v>551.09751426168805</v>
       </c>
       <c r="N18" cm="1">
         <f t="array" ref="N18">_xlfn.STDEV.S(IF($B$2:$B$179=B18,$J$2:$J$179))</f>
-        <v>36.909799963334038</v>
+        <v>60.994535274345132</v>
       </c>
       <c r="O18" cm="1">
         <f t="array" ref="O18">AVERAGE(IF($B$2:$B$179=B18,$J$2:$J$179))</f>
-        <v>684.33333333333337</v>
+        <v>530.66666666666663</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
-        <v>4.3034232147685909</v>
+        <f>N18/O18*SQRT(2/PI())*100</f>
+        <v>9.1708413295375166</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>3.61</v>
+        <v>3.9</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>573</v>
+        <v>690</v>
       </c>
       <c r="K19" s="2">
-        <v>665.71090000000004</v>
+        <v>628.06740000000002</v>
       </c>
       <c r="L19" s="2">
-        <v>631.23677941378196</v>
+        <v>669.10421465636898</v>
       </c>
       <c r="M19" s="2">
-        <v>659.74593679246595</v>
+        <v>610.842261102203</v>
       </c>
       <c r="N19" cm="1">
         <f t="array" ref="N19">_xlfn.STDEV.S(IF($B$2:$B$179=B19,$J$2:$J$179))</f>
-        <v>33.181320046074113</v>
+        <v>68.383721259765721</v>
       </c>
       <c r="O19" cm="1">
         <f t="array" ref="O19">AVERAGE(IF($B$2:$B$179=B19,$J$2:$J$179))</f>
-        <v>577</v>
+        <v>613.66666666666663</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
-        <v>4.5883644665201313</v>
+        <f>N19/O19*SQRT(2/PI())*100</f>
+        <v>8.8911975127779037</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D20" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>3.61</v>
+        <v>3.9</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>612</v>
+        <v>558</v>
       </c>
       <c r="K20" s="2">
-        <v>665.71090000000004</v>
+        <v>628.06740000000002</v>
       </c>
       <c r="L20" s="2">
-        <v>594.04305817403895</v>
+        <v>613.609764808661</v>
       </c>
       <c r="M20" s="2">
-        <v>653.89010919305701</v>
+        <v>618.67633467545295</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" ref="N20">_xlfn.STDEV.S(IF($B$2:$B$179=B20,$J$2:$J$179))</f>
-        <v>33.181320046074113</v>
+        <v>68.383721259765721</v>
       </c>
       <c r="O20" cm="1">
         <f t="array" ref="O20">AVERAGE(IF($B$2:$B$179=B20,$J$2:$J$179))</f>
-        <v>577</v>
+        <v>613.66666666666663</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
-        <v>4.5883644665201313</v>
+        <f>N20/O20*SQRT(2/PI())*100</f>
+        <v>8.8911975127779037</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D21" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>3.61</v>
+        <v>3.9</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="K21" s="2">
-        <v>665.71090000000004</v>
+        <v>628.06740000000002</v>
       </c>
       <c r="L21" s="2">
-        <v>658.55127832162998</v>
+        <v>610.66612347010596</v>
       </c>
       <c r="M21" s="2">
-        <v>662.80953935426703</v>
+        <v>614.39533634720397</v>
       </c>
       <c r="N21" cm="1">
         <f t="array" ref="N21">_xlfn.STDEV.S(IF($B$2:$B$179=B21,$J$2:$J$179))</f>
-        <v>33.181320046074113</v>
+        <v>68.383721259765721</v>
       </c>
       <c r="O21" cm="1">
         <f t="array" ref="O21">AVERAGE(IF($B$2:$B$179=B21,$J$2:$J$179))</f>
-        <v>577</v>
+        <v>613.66666666666663</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
-        <v>4.5883644665201313</v>
+        <f>N21/O21*SQRT(2/PI())*100</f>
+        <v>8.8911975127779037</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D22" s="1">
-        <v>0.25440000000000002</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>3.86</v>
+        <v>3.81</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H22" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="K22" s="2">
-        <v>766.09879999999998</v>
+        <v>644.52184999999997</v>
       </c>
       <c r="L22" s="2">
-        <v>718.601408398486</v>
+        <v>634.28144762698003</v>
       </c>
       <c r="M22" s="2">
-        <v>672.17467967719699</v>
+        <v>650.87750272421204</v>
       </c>
       <c r="N22" cm="1">
         <f t="array" ref="N22">_xlfn.STDEV.S(IF($B$2:$B$179=B22,$J$2:$J$179))</f>
-        <v>64.748230349047631</v>
+        <v>27.300793639257691</v>
       </c>
       <c r="O22" cm="1">
         <f t="array" ref="O22">AVERAGE(IF($B$2:$B$179=B22,$J$2:$J$179))</f>
-        <v>665.33333333333337</v>
+        <v>678.33333333333337</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
-        <v>7.7647715433085098</v>
+        <f>N22/O22*SQRT(2/PI())*100</f>
+        <v>3.2112356377044891</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B23" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D23" s="1">
-        <v>0.25440000000000002</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>3.86</v>
+        <v>3.81</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1">
-        <v>607</v>
+        <v>703</v>
       </c>
       <c r="K23" s="2">
-        <v>766.09879999999998</v>
+        <v>644.52184999999997</v>
       </c>
       <c r="L23" s="2">
-        <v>764.71312031821503</v>
+        <v>624.35826627424206</v>
       </c>
       <c r="M23" s="2">
-        <v>672.17443787684499</v>
+        <v>647.41566350665198</v>
       </c>
       <c r="N23" cm="1">
         <f t="array" ref="N23">_xlfn.STDEV.S(IF($B$2:$B$179=B23,$J$2:$J$179))</f>
-        <v>64.748230349047631</v>
+        <v>27.300793639257691</v>
       </c>
       <c r="O23" cm="1">
         <f t="array" ref="O23">AVERAGE(IF($B$2:$B$179=B23,$J$2:$J$179))</f>
-        <v>665.33333333333337</v>
+        <v>678.33333333333337</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
-        <v>7.7647715433085098</v>
+        <f>N23/O23*SQRT(2/PI())*100</f>
+        <v>3.2112356377044891</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>0.25440000000000002</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>3.86</v>
+        <v>3.81</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K24" s="2">
-        <v>766.09879999999998</v>
+        <v>644.52184999999997</v>
       </c>
       <c r="L24" s="2">
-        <v>699.34171531765901</v>
+        <v>655.26312386371899</v>
       </c>
       <c r="M24" s="2">
-        <v>657.47699320793799</v>
+        <v>651.08177504539003</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" ref="N24">_xlfn.STDEV.S(IF($B$2:$B$179=B24,$J$2:$J$179))</f>
-        <v>64.748230349047631</v>
+        <v>27.300793639257691</v>
       </c>
       <c r="O24" cm="1">
         <f t="array" ref="O24">AVERAGE(IF($B$2:$B$179=B24,$J$2:$J$179))</f>
-        <v>665.33333333333337</v>
+        <v>678.33333333333337</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
-        <v>7.7647715433085098</v>
+        <f>N24/O24*SQRT(2/PI())*100</f>
+        <v>3.2112356377044891</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B25" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>0.312</v>
+        <v>0.25440000000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>4.03</v>
+        <v>3.86</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H25" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>1275</v>
+        <v>735</v>
       </c>
       <c r="K25" s="2">
-        <v>932.06650000000002</v>
+        <v>766.09879999999998</v>
       </c>
       <c r="L25" s="2">
-        <v>1084.0528480856899</v>
+        <v>718.601408398486</v>
       </c>
       <c r="M25" s="2">
-        <v>1012.15987365725</v>
+        <v>672.17467967719699</v>
       </c>
       <c r="N25" cm="1">
         <f t="array" ref="N25">_xlfn.STDEV.S(IF($B$2:$B$179=B25,$J$2:$J$179))</f>
-        <v>172.21788525005178</v>
+        <v>64.748230349047631</v>
       </c>
       <c r="O25" cm="1">
         <f t="array" ref="O25">AVERAGE(IF($B$2:$B$179=B25,$J$2:$J$179))</f>
-        <v>1077</v>
+        <v>665.33333333333337</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
-        <v>12.758587904840841</v>
+        <f>N25/O25*SQRT(2/PI())*100</f>
+        <v>7.7647715433085098</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D26" s="1">
-        <v>0.312</v>
+        <v>0.25440000000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>4.03</v>
+        <v>3.86</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>962</v>
+        <v>607</v>
       </c>
       <c r="K26" s="2">
-        <v>932.06650000000002</v>
+        <v>766.09879999999998</v>
       </c>
       <c r="L26" s="2">
-        <v>1066.3013639405101</v>
+        <v>764.71312031821503</v>
       </c>
       <c r="M26" s="2">
-        <v>972.71718111679297</v>
+        <v>672.17443787684499</v>
       </c>
       <c r="N26" cm="1">
         <f t="array" ref="N26">_xlfn.STDEV.S(IF($B$2:$B$179=B26,$J$2:$J$179))</f>
-        <v>172.21788525005178</v>
+        <v>64.748230349047631</v>
       </c>
       <c r="O26" cm="1">
         <f t="array" ref="O26">AVERAGE(IF($B$2:$B$179=B26,$J$2:$J$179))</f>
-        <v>1077</v>
+        <v>665.33333333333337</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
-        <v>12.758587904840841</v>
+        <f>N26/O26*SQRT(2/PI())*100</f>
+        <v>7.7647715433085098</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="B27" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.312</v>
+        <v>0.25440000000000002</v>
       </c>
       <c r="E27" s="1">
-        <v>4.03</v>
+        <v>3.86</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H27" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>994</v>
+        <v>654</v>
       </c>
       <c r="K27" s="2">
-        <v>932.06650000000002</v>
+        <v>766.09879999999998</v>
       </c>
       <c r="L27" s="2">
-        <v>971.16631796390095</v>
+        <v>699.34171531765901</v>
       </c>
       <c r="M27" s="2">
-        <v>973.31934708212998</v>
+        <v>657.47699320793799</v>
       </c>
       <c r="N27" cm="1">
         <f t="array" ref="N27">_xlfn.STDEV.S(IF($B$2:$B$179=B27,$J$2:$J$179))</f>
-        <v>172.21788525005178</v>
+        <v>64.748230349047631</v>
       </c>
       <c r="O27" cm="1">
         <f t="array" ref="O27">AVERAGE(IF($B$2:$B$179=B27,$J$2:$J$179))</f>
-        <v>1077</v>
+        <v>665.33333333333337</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
-        <v>12.758587904840841</v>
+        <f>N27/O27*SQRT(2/PI())*100</f>
+        <v>7.7647715433085098</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D28" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.312</v>
       </c>
       <c r="E28" s="1">
-        <v>3.94</v>
+        <v>4.03</v>
       </c>
       <c r="F28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
         <v>55</v>
       </c>
       <c r="H28" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>1097</v>
+        <v>1275</v>
       </c>
       <c r="K28" s="2">
-        <v>1022.5518</v>
+        <v>932.06650000000002</v>
       </c>
       <c r="L28" s="2">
-        <v>877.37307745604596</v>
+        <v>1084.0528480856899</v>
       </c>
       <c r="M28" s="2">
-        <v>887.41467082709801</v>
+        <v>1012.15987365725</v>
       </c>
       <c r="N28" cm="1">
         <f t="array" ref="N28">_xlfn.STDEV.S(IF($B$2:$B$179=B28,$J$2:$J$179))</f>
-        <v>37.749172176353746</v>
+        <v>172.21788525005178</v>
       </c>
       <c r="O28" cm="1">
         <f t="array" ref="O28">AVERAGE(IF($B$2:$B$179=B28,$J$2:$J$179))</f>
-        <v>1137</v>
+        <v>1077</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
-        <v>2.6490309289887208</v>
+        <f>N28/O28*SQRT(2/PI())*100</f>
+        <v>12.758587904840841</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D29" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.312</v>
       </c>
       <c r="E29" s="1">
-        <v>3.94</v>
+        <v>4.03</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <v>55</v>
       </c>
       <c r="H29" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>1172</v>
+        <v>962</v>
       </c>
       <c r="K29" s="2">
-        <v>1022.5518</v>
+        <v>932.06650000000002</v>
       </c>
       <c r="L29" s="2">
-        <v>1095.6094321355099</v>
+        <v>1066.3013639405101</v>
       </c>
       <c r="M29" s="2">
-        <v>953.36364856113698</v>
+        <v>972.71718111679297</v>
       </c>
       <c r="N29" cm="1">
         <f t="array" ref="N29">_xlfn.STDEV.S(IF($B$2:$B$179=B29,$J$2:$J$179))</f>
-        <v>37.749172176353746</v>
+        <v>172.21788525005178</v>
       </c>
       <c r="O29" cm="1">
         <f t="array" ref="O29">AVERAGE(IF($B$2:$B$179=B29,$J$2:$J$179))</f>
-        <v>1137</v>
+        <v>1077</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
-        <v>2.6490309289887208</v>
+        <f>N29/O29*SQRT(2/PI())*100</f>
+        <v>12.758587904840841</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D30" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.312</v>
       </c>
       <c r="E30" s="1">
-        <v>3.94</v>
+        <v>4.03</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1">
         <v>55</v>
       </c>
       <c r="H30" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>1142</v>
+        <v>994</v>
       </c>
       <c r="K30" s="2">
-        <v>1022.5518</v>
+        <v>932.06650000000002</v>
       </c>
       <c r="L30" s="2">
-        <v>1058.95141108449</v>
+        <v>971.16631796390095</v>
       </c>
       <c r="M30" s="2">
-        <v>981.83340177313903</v>
+        <v>973.31934708212998</v>
       </c>
       <c r="N30" cm="1">
         <f t="array" ref="N30">_xlfn.STDEV.S(IF($B$2:$B$179=B30,$J$2:$J$179))</f>
-        <v>37.749172176353746</v>
+        <v>172.21788525005178</v>
       </c>
       <c r="O30" cm="1">
         <f t="array" ref="O30">AVERAGE(IF($B$2:$B$179=B30,$J$2:$J$179))</f>
-        <v>1137</v>
+        <v>1077</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
-        <v>2.6490309289887208</v>
+        <f>N30/O30*SQRT(2/PI())*100</f>
+        <v>12.758587904840841</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D31" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>0.34079999999999999</v>
       </c>
       <c r="E31" s="1">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1">
         <v>72</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1">
-        <v>999</v>
+        <v>650</v>
       </c>
       <c r="K31" s="2">
-        <v>1071.7318</v>
+        <v>686.90923999999995</v>
       </c>
       <c r="L31" s="2">
-        <v>994.14396876740796</v>
+        <v>618.04379592465602</v>
       </c>
       <c r="M31" s="2">
-        <v>1081.3927154456601</v>
+        <v>641.24144179913401</v>
       </c>
       <c r="N31" cm="1">
         <f t="array" ref="N31">_xlfn.STDEV.S(IF($B$2:$B$179=B31,$J$2:$J$179))</f>
-        <v>50.089919145472777</v>
+        <v>15.88500340992514</v>
       </c>
       <c r="O31" cm="1">
         <f t="array" ref="O31">AVERAGE(IF($B$2:$B$179=B31,$J$2:$J$179))</f>
-        <v>1036</v>
+        <v>631.66666666666663</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
-        <v>3.8577194148683964</v>
+        <f>N31/O31*SQRT(2/PI())*100</f>
+        <v>2.0065011560549033</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D32" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>0.34079999999999999</v>
       </c>
       <c r="E32" s="1">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H32" s="1">
         <v>72</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1">
-        <v>1016</v>
+        <v>623</v>
       </c>
       <c r="K32" s="2">
-        <v>1071.7318</v>
+        <v>686.90923999999995</v>
       </c>
       <c r="L32" s="2">
-        <v>944.35705594118599</v>
+        <v>631.414147396114</v>
       </c>
       <c r="M32" s="2">
-        <v>1011.59089623165</v>
+        <v>647.91067836224499</v>
       </c>
       <c r="N32" cm="1">
         <f t="array" ref="N32">_xlfn.STDEV.S(IF($B$2:$B$179=B32,$J$2:$J$179))</f>
-        <v>50.089919145472777</v>
+        <v>15.88500340992514</v>
       </c>
       <c r="O32" cm="1">
         <f t="array" ref="O32">AVERAGE(IF($B$2:$B$179=B32,$J$2:$J$179))</f>
-        <v>1036</v>
+        <v>631.66666666666663</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
-        <v>3.8577194148683964</v>
+        <f>N32/O32*SQRT(2/PI())*100</f>
+        <v>2.0065011560549033</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="D33" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>0.34079999999999999</v>
       </c>
       <c r="E33" s="1">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H33" s="1">
         <v>72</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" s="1">
-        <v>1093</v>
+        <v>622</v>
       </c>
       <c r="K33" s="2">
-        <v>1071.7318</v>
+        <v>686.90923999999995</v>
       </c>
       <c r="L33" s="2">
-        <v>1033.3316231153699</v>
+        <v>680.06303358870298</v>
       </c>
       <c r="M33" s="2">
-        <v>1093.79214354904</v>
+        <v>663.63618587620999</v>
       </c>
       <c r="N33" cm="1">
         <f t="array" ref="N33">_xlfn.STDEV.S(IF($B$2:$B$179=B33,$J$2:$J$179))</f>
-        <v>50.089919145472777</v>
+        <v>15.88500340992514</v>
       </c>
       <c r="O33" cm="1">
         <f t="array" ref="O33">AVERAGE(IF($B$2:$B$179=B33,$J$2:$J$179))</f>
-        <v>1036</v>
+        <v>631.66666666666663</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
-        <v>3.8577194148683964</v>
+        <f>N33/O33*SQRT(2/PI())*100</f>
+        <v>2.0065011560549033</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>5.04E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E34" s="1">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
       <c r="G34" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H34" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1">
-        <v>547</v>
+        <v>714</v>
       </c>
       <c r="K34" s="2">
-        <v>578.42899999999997</v>
+        <v>675.93610000000001</v>
       </c>
       <c r="L34" s="2">
-        <v>631.31431923229195</v>
+        <v>616.24256098136402</v>
       </c>
       <c r="M34" s="2">
-        <v>570.24804075307497</v>
+        <v>602.15822514407705</v>
       </c>
       <c r="N34" cm="1">
         <f t="array" ref="N34">_xlfn.STDEV.S(IF($B$2:$B$179=B34,$J$2:$J$179))</f>
-        <v>64.085879880048466</v>
+        <v>75.797977105812876</v>
       </c>
       <c r="O34" cm="1">
         <f t="array" ref="O34">AVERAGE(IF($B$2:$B$179=B34,$J$2:$J$179))</f>
-        <v>584</v>
+        <v>675.33333333333337</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P65" si="1">N34/O34*SQRT(2/PI())*100</f>
-        <v>8.7556736509858997</v>
+        <f>N34/O34*SQRT(2/PI())*100</f>
+        <v>8.9552866248001699</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>5.04E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E35" s="1">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H35" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1">
-        <v>658</v>
+        <v>724</v>
       </c>
       <c r="K35" s="2">
-        <v>578.42899999999997</v>
+        <v>675.93610000000001</v>
       </c>
       <c r="L35" s="2">
-        <v>660.59575703865801</v>
+        <v>589.48402815754503</v>
       </c>
       <c r="M35" s="2">
-        <v>575.90484260581604</v>
+        <v>615.75665856527598</v>
       </c>
       <c r="N35" cm="1">
         <f t="array" ref="N35">_xlfn.STDEV.S(IF($B$2:$B$179=B35,$J$2:$J$179))</f>
-        <v>64.085879880048466</v>
+        <v>75.797977105812876</v>
       </c>
       <c r="O35" cm="1">
         <f t="array" ref="O35">AVERAGE(IF($B$2:$B$179=B35,$J$2:$J$179))</f>
-        <v>584</v>
+        <v>675.33333333333337</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
-        <v>8.7556736509858997</v>
+        <f>N35/O35*SQRT(2/PI())*100</f>
+        <v>8.9552866248001699</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>5.04E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E36" s="1">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H36" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="K36" s="2">
-        <v>578.42899999999997</v>
+        <v>675.93610000000001</v>
       </c>
       <c r="L36" s="2">
-        <v>609.42291644808597</v>
+        <v>628.63744011189999</v>
       </c>
       <c r="M36" s="2">
-        <v>520.27993233271502</v>
+        <v>598.54803804476103</v>
       </c>
       <c r="N36" cm="1">
         <f t="array" ref="N36">_xlfn.STDEV.S(IF($B$2:$B$179=B36,$J$2:$J$179))</f>
-        <v>64.085879880048466</v>
+        <v>75.797977105812876</v>
       </c>
       <c r="O36" cm="1">
         <f t="array" ref="O36">AVERAGE(IF($B$2:$B$179=B36,$J$2:$J$179))</f>
-        <v>584</v>
+        <v>675.33333333333337</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
-        <v>8.7556736509858997</v>
+        <f>N36/O36*SQRT(2/PI())*100</f>
+        <v>8.9552866248001699</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="B37" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E37" s="1">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H37" s="1">
         <v>168</v>
       </c>
       <c r="I37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="K37" s="2">
-        <v>675.93610000000001</v>
+        <v>595.85077000000001</v>
       </c>
       <c r="L37" s="2">
-        <v>616.24256098136402</v>
+        <v>638.90819400594296</v>
       </c>
       <c r="M37" s="2">
-        <v>602.15822514407705</v>
+        <v>630.43225493803698</v>
       </c>
       <c r="N37" cm="1">
         <f t="array" ref="N37">_xlfn.STDEV.S(IF($B$2:$B$179=B37,$J$2:$J$179))</f>
-        <v>75.797977105812876</v>
+        <v>60.169205855930436</v>
       </c>
       <c r="O37" cm="1">
         <f t="array" ref="O37">AVERAGE(IF($B$2:$B$179=B37,$J$2:$J$179))</f>
-        <v>675.33333333333337</v>
+        <v>680.66666666666663</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
-        <v>8.9552866248001699</v>
+        <f>N37/O37*SQRT(2/PI())*100</f>
+        <v>7.0530970207957271</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="B38" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E38" s="1">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1">
         <v>168</v>
       </c>
       <c r="I38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="K38" s="2">
-        <v>675.93610000000001</v>
+        <v>595.85077000000001</v>
       </c>
       <c r="L38" s="2">
-        <v>589.48402815754503</v>
+        <v>611.46554069676097</v>
       </c>
       <c r="M38" s="2">
-        <v>615.75665856527598</v>
+        <v>632.88101387231598</v>
       </c>
       <c r="N38" cm="1">
         <f t="array" ref="N38">_xlfn.STDEV.S(IF($B$2:$B$179=B38,$J$2:$J$179))</f>
-        <v>75.797977105812876</v>
+        <v>60.169205855930436</v>
       </c>
       <c r="O38" cm="1">
         <f t="array" ref="O38">AVERAGE(IF($B$2:$B$179=B38,$J$2:$J$179))</f>
-        <v>675.33333333333337</v>
+        <v>680.66666666666663</v>
       </c>
       <c r="P38">
-        <f t="shared" si="1"/>
-        <v>8.9552866248001699</v>
+        <f>N38/O38*SQRT(2/PI())*100</f>
+        <v>7.0530970207957271</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="B39" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E39" s="1">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H39" s="1">
         <v>168</v>
       </c>
       <c r="I39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="K39" s="2">
-        <v>675.93610000000001</v>
+        <v>595.85077000000001</v>
       </c>
       <c r="L39" s="2">
-        <v>628.63744011189999</v>
+        <v>611.69815634250403</v>
       </c>
       <c r="M39" s="2">
-        <v>598.54803804476103</v>
+        <v>629.40034697204499</v>
       </c>
       <c r="N39" cm="1">
         <f t="array" ref="N39">_xlfn.STDEV.S(IF($B$2:$B$179=B39,$J$2:$J$179))</f>
-        <v>75.797977105812876</v>
+        <v>60.169205855930436</v>
       </c>
       <c r="O39" cm="1">
         <f t="array" ref="O39">AVERAGE(IF($B$2:$B$179=B39,$J$2:$J$179))</f>
-        <v>675.33333333333337</v>
+        <v>680.66666666666663</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
-        <v>8.9552866248001699</v>
+        <f>N39/O39*SQRT(2/PI())*100</f>
+        <v>7.0530970207957271</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>0.53039999999999998</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E40" s="1">
-        <v>3.99</v>
+        <v>3.84</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H40" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>726</v>
+        <v>547</v>
       </c>
       <c r="K40" s="2">
-        <v>720.72209999999995</v>
+        <v>578.42899999999997</v>
       </c>
       <c r="L40" s="2">
-        <v>670.23924671400505</v>
+        <v>631.31431923229195</v>
       </c>
       <c r="M40" s="2">
-        <v>650.20462042283896</v>
+        <v>570.24804075307497</v>
       </c>
       <c r="N40" cm="1">
         <f t="array" ref="N40">_xlfn.STDEV.S(IF($B$2:$B$179=B40,$J$2:$J$179))</f>
-        <v>57.726366015308237</v>
+        <v>64.085879880048466</v>
       </c>
       <c r="O40" cm="1">
         <f t="array" ref="O40">AVERAGE(IF($B$2:$B$179=B40,$J$2:$J$179))</f>
-        <v>662.66666666666663</v>
+        <v>584</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
-        <v>6.9505497275960266</v>
+        <f>N40/O40*SQRT(2/PI())*100</f>
+        <v>8.7556736509858997</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D41" s="1">
-        <v>0.53039999999999998</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E41" s="1">
-        <v>3.99</v>
+        <v>3.84</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H41" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
       </c>
       <c r="J41" s="1">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c r="K41" s="2">
-        <v>720.72209999999995</v>
+        <v>578.42899999999997</v>
       </c>
       <c r="L41" s="2">
-        <v>636.71647323421803</v>
+        <v>660.59575703865801</v>
       </c>
       <c r="M41" s="2">
-        <v>652.08491389753794</v>
+        <v>575.90484260581604</v>
       </c>
       <c r="N41" cm="1">
         <f t="array" ref="N41">_xlfn.STDEV.S(IF($B$2:$B$179=B41,$J$2:$J$179))</f>
-        <v>57.726366015308237</v>
+        <v>64.085879880048466</v>
       </c>
       <c r="O41" cm="1">
         <f t="array" ref="O41">AVERAGE(IF($B$2:$B$179=B41,$J$2:$J$179))</f>
-        <v>662.66666666666663</v>
+        <v>584</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
-        <v>6.9505497275960266</v>
+        <f>N41/O41*SQRT(2/PI())*100</f>
+        <v>8.7556736509858997</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>0.53039999999999998</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E42" s="1">
-        <v>3.99</v>
+        <v>3.84</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H42" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>649</v>
+        <v>547</v>
       </c>
       <c r="K42" s="2">
-        <v>720.72209999999995</v>
+        <v>578.42899999999997</v>
       </c>
       <c r="L42" s="2">
-        <v>637.00830349788703</v>
+        <v>609.42291644808597</v>
       </c>
       <c r="M42" s="2">
-        <v>652.03130445348995</v>
+        <v>520.27993233271502</v>
       </c>
       <c r="N42" cm="1">
         <f t="array" ref="N42">_xlfn.STDEV.S(IF($B$2:$B$179=B42,$J$2:$J$179))</f>
-        <v>57.726366015308237</v>
+        <v>64.085879880048466</v>
       </c>
       <c r="O42" cm="1">
         <f t="array" ref="O42">AVERAGE(IF($B$2:$B$179=B42,$J$2:$J$179))</f>
-        <v>662.66666666666663</v>
+        <v>584</v>
       </c>
       <c r="P42">
-        <f t="shared" si="1"/>
-        <v>6.9505497275960266</v>
+        <f>N42/O42*SQRT(2/PI())*100</f>
+        <v>8.7556736509858997</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2738,7 +2736,7 @@
         <v>647</v>
       </c>
       <c r="P43">
-        <f t="shared" si="1"/>
+        <f>N43/O43*SQRT(2/PI())*100</f>
         <v>7.1142224318412275</v>
       </c>
     </row>
@@ -2791,7 +2789,7 @@
         <v>647</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
+        <f>N44/O44*SQRT(2/PI())*100</f>
         <v>7.1142224318412275</v>
       </c>
     </row>
@@ -2844,187 +2842,187 @@
         <v>647</v>
       </c>
       <c r="P45">
-        <f t="shared" si="1"/>
+        <f>N45/O45*SQRT(2/PI())*100</f>
         <v>7.1142224318412275</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="B46" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.18</v>
+        <v>0.1368</v>
       </c>
       <c r="E46" s="1">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>55</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
         <v>2</v>
       </c>
-      <c r="G46" s="1">
-        <v>45</v>
-      </c>
-      <c r="H46" s="1">
-        <v>168</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
       <c r="J46" s="1">
-        <v>624</v>
+        <v>842</v>
       </c>
       <c r="K46" s="2">
-        <v>733.87316999999996</v>
+        <v>956.91610000000003</v>
       </c>
       <c r="L46" s="2">
-        <v>613.35461634717103</v>
+        <v>803.59861400016598</v>
       </c>
       <c r="M46" s="2">
-        <v>643.349767466853</v>
+        <v>973.82238509426497</v>
       </c>
       <c r="N46" cm="1">
         <f t="array" ref="N46">_xlfn.STDEV.S(IF($B$2:$B$179=B46,$J$2:$J$179))</f>
-        <v>28.053520278211074</v>
+        <v>40.70626487409524</v>
       </c>
       <c r="O46" cm="1">
         <f t="array" ref="O46">AVERAGE(IF($B$2:$B$179=B46,$J$2:$J$179))</f>
-        <v>626</v>
+        <v>819</v>
       </c>
       <c r="P46">
-        <f t="shared" si="1"/>
-        <v>3.5756342981077829</v>
+        <f>N46/O46*SQRT(2/PI())*100</f>
+        <v>3.9656776887658838</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="B47" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>0.18</v>
+        <v>0.1368</v>
       </c>
       <c r="E47" s="1">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>55</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
         <v>2</v>
       </c>
-      <c r="G47" s="1">
-        <v>45</v>
-      </c>
-      <c r="H47" s="1">
-        <v>168</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
       <c r="J47" s="1">
-        <v>655</v>
+        <v>843</v>
       </c>
       <c r="K47" s="2">
-        <v>733.87316999999996</v>
+        <v>956.91610000000003</v>
       </c>
       <c r="L47" s="2">
-        <v>609.94587853972496</v>
+        <v>792.49389700473102</v>
       </c>
       <c r="M47" s="2">
-        <v>636.72204918467901</v>
+        <v>957.05370986137598</v>
       </c>
       <c r="N47" cm="1">
         <f t="array" ref="N47">_xlfn.STDEV.S(IF($B$2:$B$179=B47,$J$2:$J$179))</f>
-        <v>28.053520278211074</v>
+        <v>40.70626487409524</v>
       </c>
       <c r="O47" cm="1">
         <f t="array" ref="O47">AVERAGE(IF($B$2:$B$179=B47,$J$2:$J$179))</f>
-        <v>626</v>
+        <v>819</v>
       </c>
       <c r="P47">
-        <f t="shared" si="1"/>
-        <v>3.5756342981077829</v>
+        <f>N47/O47*SQRT(2/PI())*100</f>
+        <v>3.9656776887658838</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="B48" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>0.18</v>
+        <v>0.1368</v>
       </c>
       <c r="E48" s="1">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>55</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
         <v>2</v>
       </c>
-      <c r="G48" s="1">
-        <v>45</v>
-      </c>
-      <c r="H48" s="1">
-        <v>168</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
       <c r="J48" s="1">
-        <v>599</v>
+        <v>772</v>
       </c>
       <c r="K48" s="2">
-        <v>733.87316999999996</v>
+        <v>956.91610000000003</v>
       </c>
       <c r="L48" s="2">
-        <v>610.46078100530099</v>
+        <v>795.20779654861406</v>
       </c>
       <c r="M48" s="2">
-        <v>650.25359143543596</v>
+        <v>955.322032594652</v>
       </c>
       <c r="N48" cm="1">
         <f t="array" ref="N48">_xlfn.STDEV.S(IF($B$2:$B$179=B48,$J$2:$J$179))</f>
-        <v>28.053520278211074</v>
+        <v>40.70626487409524</v>
       </c>
       <c r="O48" cm="1">
         <f t="array" ref="O48">AVERAGE(IF($B$2:$B$179=B48,$J$2:$J$179))</f>
-        <v>626</v>
+        <v>819</v>
       </c>
       <c r="P48">
-        <f t="shared" si="1"/>
-        <v>3.5756342981077829</v>
+        <f>N48/O48*SQRT(2/PI())*100</f>
+        <v>3.9656776887658838</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B49" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>5.04E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E49" s="1">
-        <v>3.73</v>
+        <v>3.68</v>
       </c>
       <c r="F49" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
         <v>45</v>
@@ -3036,48 +3034,48 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>735</v>
+        <v>624</v>
       </c>
       <c r="K49" s="2">
-        <v>595.85077000000001</v>
+        <v>733.87316999999996</v>
       </c>
       <c r="L49" s="2">
-        <v>638.90819400594296</v>
+        <v>613.35461634717103</v>
       </c>
       <c r="M49" s="2">
-        <v>630.43225493803698</v>
+        <v>643.349767466853</v>
       </c>
       <c r="N49" cm="1">
         <f t="array" ref="N49">_xlfn.STDEV.S(IF($B$2:$B$179=B49,$J$2:$J$179))</f>
-        <v>60.169205855930436</v>
+        <v>28.053520278211074</v>
       </c>
       <c r="O49" cm="1">
         <f t="array" ref="O49">AVERAGE(IF($B$2:$B$179=B49,$J$2:$J$179))</f>
-        <v>680.66666666666663</v>
+        <v>626</v>
       </c>
       <c r="P49">
-        <f t="shared" si="1"/>
-        <v>7.0530970207957271</v>
+        <f>N49/O49*SQRT(2/PI())*100</f>
+        <v>3.5756342981077829</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B50" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>5.04E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E50" s="1">
-        <v>3.73</v>
+        <v>3.68</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
         <v>45</v>
@@ -3089,48 +3087,48 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="K50" s="2">
-        <v>595.85077000000001</v>
+        <v>733.87316999999996</v>
       </c>
       <c r="L50" s="2">
-        <v>611.46554069676097</v>
+        <v>609.94587853972496</v>
       </c>
       <c r="M50" s="2">
-        <v>632.88101387231598</v>
+        <v>636.72204918467901</v>
       </c>
       <c r="N50" cm="1">
         <f t="array" ref="N50">_xlfn.STDEV.S(IF($B$2:$B$179=B50,$J$2:$J$179))</f>
-        <v>60.169205855930436</v>
+        <v>28.053520278211074</v>
       </c>
       <c r="O50" cm="1">
         <f t="array" ref="O50">AVERAGE(IF($B$2:$B$179=B50,$J$2:$J$179))</f>
-        <v>680.66666666666663</v>
+        <v>626</v>
       </c>
       <c r="P50">
-        <f t="shared" si="1"/>
-        <v>7.0530970207957271</v>
+        <f>N50/O50*SQRT(2/PI())*100</f>
+        <v>3.5756342981077829</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>5.04E-2</v>
+        <v>0.18</v>
       </c>
       <c r="E51" s="1">
-        <v>3.73</v>
+        <v>3.68</v>
       </c>
       <c r="F51" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
         <v>45</v>
@@ -3142,1459 +3140,1459 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="K51" s="2">
-        <v>595.85077000000001</v>
+        <v>733.87316999999996</v>
       </c>
       <c r="L51" s="2">
-        <v>611.69815634250403</v>
+        <v>610.46078100530099</v>
       </c>
       <c r="M51" s="2">
-        <v>629.40034697204499</v>
+        <v>650.25359143543596</v>
       </c>
       <c r="N51" cm="1">
         <f t="array" ref="N51">_xlfn.STDEV.S(IF($B$2:$B$179=B51,$J$2:$J$179))</f>
-        <v>60.169205855930436</v>
+        <v>28.053520278211074</v>
       </c>
       <c r="O51" cm="1">
         <f t="array" ref="O51">AVERAGE(IF($B$2:$B$179=B51,$J$2:$J$179))</f>
-        <v>680.66666666666663</v>
+        <v>626</v>
       </c>
       <c r="P51">
-        <f t="shared" si="1"/>
-        <v>7.0530970207957271</v>
+        <f>N51/O51*SQRT(2/PI())*100</f>
+        <v>3.5756342981077829</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="B52" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>0.1368</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="E52" s="1">
-        <v>3.95</v>
+        <v>3.99</v>
       </c>
       <c r="F52" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1">
-        <v>842</v>
+        <v>726</v>
       </c>
       <c r="K52" s="2">
-        <v>956.91610000000003</v>
+        <v>720.72209999999995</v>
       </c>
       <c r="L52" s="2">
-        <v>803.59861400016598</v>
+        <v>670.23924671400505</v>
       </c>
       <c r="M52" s="2">
-        <v>973.82238509426497</v>
+        <v>650.20462042283896</v>
       </c>
       <c r="N52" cm="1">
         <f t="array" ref="N52">_xlfn.STDEV.S(IF($B$2:$B$179=B52,$J$2:$J$179))</f>
-        <v>40.70626487409524</v>
+        <v>57.726366015308237</v>
       </c>
       <c r="O52" cm="1">
         <f t="array" ref="O52">AVERAGE(IF($B$2:$B$179=B52,$J$2:$J$179))</f>
-        <v>819</v>
+        <v>662.66666666666663</v>
       </c>
       <c r="P52">
-        <f t="shared" si="1"/>
-        <v>3.9656776887658838</v>
+        <f>N52/O52*SQRT(2/PI())*100</f>
+        <v>6.9505497275960266</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D53" s="1">
-        <v>0.1368</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="E53" s="1">
-        <v>3.95</v>
+        <v>3.99</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="1">
-        <v>843</v>
+        <v>613</v>
       </c>
       <c r="K53" s="2">
-        <v>956.91610000000003</v>
+        <v>720.72209999999995</v>
       </c>
       <c r="L53" s="2">
-        <v>792.49389700473102</v>
+        <v>636.71647323421803</v>
       </c>
       <c r="M53" s="2">
-        <v>957.05370986137598</v>
+        <v>652.08491389753794</v>
       </c>
       <c r="N53" cm="1">
         <f t="array" ref="N53">_xlfn.STDEV.S(IF($B$2:$B$179=B53,$J$2:$J$179))</f>
-        <v>40.70626487409524</v>
+        <v>57.726366015308237</v>
       </c>
       <c r="O53" cm="1">
         <f t="array" ref="O53">AVERAGE(IF($B$2:$B$179=B53,$J$2:$J$179))</f>
-        <v>819</v>
+        <v>662.66666666666663</v>
       </c>
       <c r="P53">
-        <f t="shared" si="1"/>
-        <v>3.9656776887658838</v>
+        <f>N53/O53*SQRT(2/PI())*100</f>
+        <v>6.9505497275960266</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="D54" s="1">
-        <v>0.1368</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="E54" s="1">
-        <v>3.95</v>
+        <v>3.99</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>772</v>
+        <v>649</v>
       </c>
       <c r="K54" s="2">
-        <v>956.91610000000003</v>
+        <v>720.72209999999995</v>
       </c>
       <c r="L54" s="2">
-        <v>795.20779654861406</v>
+        <v>637.00830349788703</v>
       </c>
       <c r="M54" s="2">
-        <v>955.322032594652</v>
+        <v>652.03130445348995</v>
       </c>
       <c r="N54" cm="1">
         <f t="array" ref="N54">_xlfn.STDEV.S(IF($B$2:$B$179=B54,$J$2:$J$179))</f>
-        <v>40.70626487409524</v>
+        <v>57.726366015308237</v>
       </c>
       <c r="O54" cm="1">
         <f t="array" ref="O54">AVERAGE(IF($B$2:$B$179=B54,$J$2:$J$179))</f>
-        <v>819</v>
+        <v>662.66666666666663</v>
       </c>
       <c r="P54">
-        <f t="shared" si="1"/>
-        <v>3.9656776887658838</v>
+        <f>N54/O54*SQRT(2/PI())*100</f>
+        <v>6.9505497275960266</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="B55" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D55" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E55" s="1">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I55" s="1">
         <v>4</v>
       </c>
       <c r="J55" s="1">
-        <v>486</v>
+        <v>660</v>
       </c>
       <c r="K55" s="2">
-        <v>577.06200000000001</v>
+        <v>646.52880000000005</v>
       </c>
       <c r="L55" s="2">
-        <v>593.65248412899098</v>
+        <v>635.19239524547504</v>
       </c>
       <c r="M55" s="2">
-        <v>543.60147282065304</v>
+        <v>638.91400607989999</v>
       </c>
       <c r="N55" cm="1">
         <f t="array" ref="N55">_xlfn.STDEV.S(IF($B$2:$B$179=B55,$J$2:$J$179))</f>
-        <v>62.072538211353979</v>
+        <v>23.586719427112648</v>
       </c>
       <c r="O55" cm="1">
         <f t="array" ref="O55">AVERAGE(IF($B$2:$B$179=B55,$J$2:$J$179))</f>
-        <v>513</v>
+        <v>657.66666666666663</v>
       </c>
       <c r="P55">
-        <f t="shared" si="1"/>
-        <v>9.6543313623168139</v>
+        <f>N55/O55*SQRT(2/PI())*100</f>
+        <v>2.8615528541635364</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="B56" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E56" s="1">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I56" s="1">
         <v>4</v>
       </c>
       <c r="J56" s="1">
-        <v>469</v>
+        <v>680</v>
       </c>
       <c r="K56" s="2">
-        <v>577.06200000000001</v>
+        <v>646.52880000000005</v>
       </c>
       <c r="L56" s="2">
-        <v>577.63074823106297</v>
+        <v>785.43768122206302</v>
       </c>
       <c r="M56" s="2">
-        <v>610.98395191877</v>
+        <v>654.36065867662603</v>
       </c>
       <c r="N56" cm="1">
         <f t="array" ref="N56">_xlfn.STDEV.S(IF($B$2:$B$179=B56,$J$2:$J$179))</f>
-        <v>62.072538211353979</v>
+        <v>23.586719427112648</v>
       </c>
       <c r="O56" cm="1">
         <f t="array" ref="O56">AVERAGE(IF($B$2:$B$179=B56,$J$2:$J$179))</f>
-        <v>513</v>
+        <v>657.66666666666663</v>
       </c>
       <c r="P56">
-        <f t="shared" si="1"/>
-        <v>9.6543313623168139</v>
+        <f>N56/O56*SQRT(2/PI())*100</f>
+        <v>2.8615528541635364</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B57" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D57" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E57" s="1">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I57" s="1">
         <v>4</v>
       </c>
       <c r="J57" s="1">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="K57" s="2">
-        <v>577.06200000000001</v>
+        <v>646.52880000000005</v>
       </c>
       <c r="L57" s="2">
-        <v>576.38877307827602</v>
+        <v>645.491033302755</v>
       </c>
       <c r="M57" s="2">
-        <v>593.44408605252795</v>
+        <v>664.76539392171298</v>
       </c>
       <c r="N57" cm="1">
         <f t="array" ref="N57">_xlfn.STDEV.S(IF($B$2:$B$179=B57,$J$2:$J$179))</f>
-        <v>62.072538211353979</v>
+        <v>23.586719427112648</v>
       </c>
       <c r="O57" cm="1">
         <f t="array" ref="O57">AVERAGE(IF($B$2:$B$179=B57,$J$2:$J$179))</f>
-        <v>513</v>
+        <v>657.66666666666663</v>
       </c>
       <c r="P57">
-        <f t="shared" si="1"/>
-        <v>9.6543313623168139</v>
+        <f>N57/O57*SQRT(2/PI())*100</f>
+        <v>2.8615528541635364</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="B58" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>0.1656</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E58" s="1">
-        <v>3.77</v>
+        <v>3.98</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K58" s="2">
-        <v>692.06709999999998</v>
+        <v>632.81079999999997</v>
       </c>
       <c r="L58" s="2">
-        <v>588.22832786959202</v>
+        <v>629.57008109899095</v>
       </c>
       <c r="M58" s="2">
-        <v>588.95801313791003</v>
+        <v>655.01931451719702</v>
       </c>
       <c r="N58" cm="1">
         <f t="array" ref="N58">_xlfn.STDEV.S(IF($B$2:$B$179=B58,$J$2:$J$179))</f>
-        <v>66.775744099186198</v>
+        <v>63.319296690134941</v>
       </c>
       <c r="O58" cm="1">
         <f t="array" ref="O58">AVERAGE(IF($B$2:$B$179=B58,$J$2:$J$179))</f>
-        <v>641</v>
+        <v>638.33333333333337</v>
       </c>
       <c r="P58">
-        <f t="shared" si="1"/>
-        <v>8.3119087757977699</v>
+        <f>N58/O58*SQRT(2/PI())*100</f>
+        <v>7.9145936130477255</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B59" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1656</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E59" s="1">
-        <v>3.77</v>
+        <v>3.98</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" s="1">
-        <v>648</v>
+        <v>705</v>
       </c>
       <c r="K59" s="2">
-        <v>692.06709999999998</v>
+        <v>632.81079999999997</v>
       </c>
       <c r="L59" s="2">
-        <v>586.44019293876795</v>
+        <v>660.47024442679594</v>
       </c>
       <c r="M59" s="2">
-        <v>570.92132004546204</v>
+        <v>655.95822200024497</v>
       </c>
       <c r="N59" cm="1">
         <f t="array" ref="N59">_xlfn.STDEV.S(IF($B$2:$B$179=B59,$J$2:$J$179))</f>
-        <v>66.775744099186198</v>
+        <v>63.319296690134941</v>
       </c>
       <c r="O59" cm="1">
         <f t="array" ref="O59">AVERAGE(IF($B$2:$B$179=B59,$J$2:$J$179))</f>
-        <v>641</v>
+        <v>638.33333333333337</v>
       </c>
       <c r="P59">
-        <f t="shared" si="1"/>
-        <v>8.3119087757977699</v>
+        <f>N59/O59*SQRT(2/PI())*100</f>
+        <v>7.9145936130477255</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B60" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D60" s="1">
-        <v>0.1656</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E60" s="1">
-        <v>3.77</v>
+        <v>3.98</v>
       </c>
       <c r="F60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="K60" s="2">
-        <v>692.06709999999998</v>
+        <v>632.81079999999997</v>
       </c>
       <c r="L60" s="2">
-        <v>650.701427614213</v>
+        <v>670.08325654810994</v>
       </c>
       <c r="M60" s="2">
-        <v>564.97764149598095</v>
+        <v>652.877862057171</v>
       </c>
       <c r="N60" cm="1">
         <f t="array" ref="N60">_xlfn.STDEV.S(IF($B$2:$B$179=B60,$J$2:$J$179))</f>
-        <v>66.775744099186198</v>
+        <v>63.319296690134941</v>
       </c>
       <c r="O60" cm="1">
         <f t="array" ref="O60">AVERAGE(IF($B$2:$B$179=B60,$J$2:$J$179))</f>
-        <v>641</v>
+        <v>638.33333333333337</v>
       </c>
       <c r="P60">
-        <f t="shared" si="1"/>
-        <v>8.3119087757977699</v>
+        <f>N60/O60*SQRT(2/PI())*100</f>
+        <v>7.9145936130477255</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D61" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E61" s="1">
-        <v>3.98</v>
+        <v>3.72</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H61" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1">
-        <v>579</v>
+        <v>486</v>
       </c>
       <c r="K61" s="2">
-        <v>632.81079999999997</v>
+        <v>577.06200000000001</v>
       </c>
       <c r="L61" s="2">
-        <v>629.57008109899095</v>
+        <v>593.65248412899098</v>
       </c>
       <c r="M61" s="2">
-        <v>655.01931451719702</v>
+        <v>543.60147282065304</v>
       </c>
       <c r="N61" cm="1">
         <f t="array" ref="N61">_xlfn.STDEV.S(IF($B$2:$B$179=B61,$J$2:$J$179))</f>
-        <v>63.319296690134941</v>
+        <v>62.072538211353979</v>
       </c>
       <c r="O61" cm="1">
         <f t="array" ref="O61">AVERAGE(IF($B$2:$B$179=B61,$J$2:$J$179))</f>
-        <v>638.33333333333337</v>
+        <v>513</v>
       </c>
       <c r="P61">
-        <f t="shared" si="1"/>
-        <v>7.9145936130477255</v>
+        <f>N61/O61*SQRT(2/PI())*100</f>
+        <v>9.6543313623168139</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B62" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D62" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E62" s="1">
-        <v>3.98</v>
+        <v>3.72</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H62" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" s="1">
-        <v>705</v>
+        <v>469</v>
       </c>
       <c r="K62" s="2">
-        <v>632.81079999999997</v>
+        <v>577.06200000000001</v>
       </c>
       <c r="L62" s="2">
-        <v>660.47024442679594</v>
+        <v>577.63074823106297</v>
       </c>
       <c r="M62" s="2">
-        <v>655.95822200024497</v>
+        <v>610.98395191877</v>
       </c>
       <c r="N62" cm="1">
         <f t="array" ref="N62">_xlfn.STDEV.S(IF($B$2:$B$179=B62,$J$2:$J$179))</f>
-        <v>63.319296690134941</v>
+        <v>62.072538211353979</v>
       </c>
       <c r="O62" cm="1">
         <f t="array" ref="O62">AVERAGE(IF($B$2:$B$179=B62,$J$2:$J$179))</f>
-        <v>638.33333333333337</v>
+        <v>513</v>
       </c>
       <c r="P62">
-        <f t="shared" si="1"/>
-        <v>7.9145936130477255</v>
+        <f>N62/O62*SQRT(2/PI())*100</f>
+        <v>9.6543313623168139</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D63" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E63" s="1">
-        <v>3.98</v>
+        <v>3.72</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H63" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" s="1">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="K63" s="2">
-        <v>632.81079999999997</v>
+        <v>577.06200000000001</v>
       </c>
       <c r="L63" s="2">
-        <v>670.08325654810994</v>
+        <v>576.38877307827602</v>
       </c>
       <c r="M63" s="2">
-        <v>652.877862057171</v>
+        <v>593.44408605252795</v>
       </c>
       <c r="N63" cm="1">
         <f t="array" ref="N63">_xlfn.STDEV.S(IF($B$2:$B$179=B63,$J$2:$J$179))</f>
-        <v>63.319296690134941</v>
+        <v>62.072538211353979</v>
       </c>
       <c r="O63" cm="1">
         <f t="array" ref="O63">AVERAGE(IF($B$2:$B$179=B63,$J$2:$J$179))</f>
-        <v>638.33333333333337</v>
+        <v>513</v>
       </c>
       <c r="P63">
-        <f t="shared" si="1"/>
-        <v>7.9145936130477255</v>
+        <f>N63/O63*SQRT(2/PI())*100</f>
+        <v>9.6543313623168139</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="B64" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D64" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.1656</v>
       </c>
       <c r="E64" s="1">
-        <v>3.71</v>
+        <v>3.77</v>
       </c>
       <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>25</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
         <v>3</v>
       </c>
-      <c r="G64" s="1">
-        <v>45</v>
-      </c>
-      <c r="H64" s="1">
-        <v>72</v>
-      </c>
-      <c r="I64" s="1">
-        <v>4</v>
-      </c>
       <c r="J64" s="1">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="K64" s="2">
-        <v>646.52880000000005</v>
+        <v>692.06709999999998</v>
       </c>
       <c r="L64" s="2">
-        <v>635.19239524547504</v>
+        <v>588.22832786959202</v>
       </c>
       <c r="M64" s="2">
-        <v>638.91400607989999</v>
+        <v>588.95801313791003</v>
       </c>
       <c r="N64" cm="1">
         <f t="array" ref="N64">_xlfn.STDEV.S(IF($B$2:$B$179=B64,$J$2:$J$179))</f>
-        <v>23.586719427112648</v>
+        <v>66.775744099186198</v>
       </c>
       <c r="O64" cm="1">
         <f t="array" ref="O64">AVERAGE(IF($B$2:$B$179=B64,$J$2:$J$179))</f>
-        <v>657.66666666666663</v>
+        <v>641</v>
       </c>
       <c r="P64">
-        <f t="shared" si="1"/>
-        <v>2.8615528541635364</v>
+        <f>N64/O64*SQRT(2/PI())*100</f>
+        <v>8.3119087757977699</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="B65" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D65" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.1656</v>
       </c>
       <c r="E65" s="1">
-        <v>3.71</v>
+        <v>3.77</v>
       </c>
       <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>25</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
         <v>3</v>
       </c>
-      <c r="G65" s="1">
-        <v>45</v>
-      </c>
-      <c r="H65" s="1">
-        <v>72</v>
-      </c>
-      <c r="I65" s="1">
-        <v>4</v>
-      </c>
       <c r="J65" s="1">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="K65" s="2">
-        <v>646.52880000000005</v>
+        <v>692.06709999999998</v>
       </c>
       <c r="L65" s="2">
-        <v>785.43768122206302</v>
+        <v>586.44019293876795</v>
       </c>
       <c r="M65" s="2">
-        <v>654.36065867662603</v>
+        <v>570.92132004546204</v>
       </c>
       <c r="N65" cm="1">
         <f t="array" ref="N65">_xlfn.STDEV.S(IF($B$2:$B$179=B65,$J$2:$J$179))</f>
-        <v>23.586719427112648</v>
+        <v>66.775744099186198</v>
       </c>
       <c r="O65" cm="1">
         <f t="array" ref="O65">AVERAGE(IF($B$2:$B$179=B65,$J$2:$J$179))</f>
-        <v>657.66666666666663</v>
+        <v>641</v>
       </c>
       <c r="P65">
-        <f t="shared" si="1"/>
-        <v>2.8615528541635364</v>
+        <f>N65/O65*SQRT(2/PI())*100</f>
+        <v>8.3119087757977699</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1">
         <v>2.64E-2</v>
       </c>
       <c r="D66" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.1656</v>
       </c>
       <c r="E66" s="1">
-        <v>3.71</v>
+        <v>3.77</v>
       </c>
       <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>25</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
         <v>3</v>
       </c>
-      <c r="G66" s="1">
-        <v>45</v>
-      </c>
-      <c r="H66" s="1">
-        <v>72</v>
-      </c>
-      <c r="I66" s="1">
-        <v>4</v>
-      </c>
       <c r="J66" s="1">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="K66" s="2">
-        <v>646.52880000000005</v>
+        <v>692.06709999999998</v>
       </c>
       <c r="L66" s="2">
-        <v>645.491033302755</v>
+        <v>650.701427614213</v>
       </c>
       <c r="M66" s="2">
-        <v>664.76539392171298</v>
+        <v>564.97764149598095</v>
       </c>
       <c r="N66" cm="1">
         <f t="array" ref="N66">_xlfn.STDEV.S(IF($B$2:$B$179=B66,$J$2:$J$179))</f>
-        <v>23.586719427112648</v>
+        <v>66.775744099186198</v>
       </c>
       <c r="O66" cm="1">
         <f t="array" ref="O66">AVERAGE(IF($B$2:$B$179=B66,$J$2:$J$179))</f>
-        <v>657.66666666666663</v>
+        <v>641</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66:P97" si="2">N66/O66*SQRT(2/PI())*100</f>
-        <v>2.8615528541635364</v>
+        <f>N66/O66*SQRT(2/PI())*100</f>
+        <v>8.3119087757977699</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="B67" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D67" s="1">
-        <v>0.64800000000000002</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E67" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.69</v>
       </c>
       <c r="F67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H67" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I67" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" s="1">
-        <v>779</v>
+        <v>908</v>
       </c>
       <c r="K67" s="2">
-        <v>756.83344</v>
+        <v>1030.5468000000001</v>
       </c>
       <c r="L67" s="2">
-        <v>631.38203410558697</v>
+        <v>988.75026983557495</v>
       </c>
       <c r="M67" s="2">
-        <v>655.60913581214902</v>
+        <v>997.38306167084397</v>
       </c>
       <c r="N67" cm="1">
         <f t="array" ref="N67">_xlfn.STDEV.S(IF($B$2:$B$179=B67,$J$2:$J$179))</f>
-        <v>80.727938162695565</v>
+        <v>73.898579147369261</v>
       </c>
       <c r="O67" cm="1">
         <f t="array" ref="O67">AVERAGE(IF($B$2:$B$179=B67,$J$2:$J$179))</f>
-        <v>695</v>
+        <v>937</v>
       </c>
       <c r="P67">
-        <f t="shared" si="2"/>
-        <v>9.2678525878364351</v>
+        <f>N67/O67*SQRT(2/PI())*100</f>
+        <v>6.2926932088532022</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="B68" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D68" s="1">
-        <v>0.64800000000000002</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E68" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.69</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H68" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I68" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" s="1">
-        <v>618</v>
+        <v>1021</v>
       </c>
       <c r="K68" s="2">
-        <v>756.83344</v>
+        <v>1030.5468000000001</v>
       </c>
       <c r="L68" s="2">
-        <v>658.11535218006497</v>
+        <v>931.86303156769395</v>
       </c>
       <c r="M68" s="2">
-        <v>656.11217498899703</v>
+        <v>959.96717718897605</v>
       </c>
       <c r="N68" cm="1">
         <f t="array" ref="N68">_xlfn.STDEV.S(IF($B$2:$B$179=B68,$J$2:$J$179))</f>
-        <v>80.727938162695565</v>
+        <v>73.898579147369261</v>
       </c>
       <c r="O68" cm="1">
         <f t="array" ref="O68">AVERAGE(IF($B$2:$B$179=B68,$J$2:$J$179))</f>
-        <v>695</v>
+        <v>937</v>
       </c>
       <c r="P68">
-        <f t="shared" si="2"/>
-        <v>9.2678525878364351</v>
+        <f>N68/O68*SQRT(2/PI())*100</f>
+        <v>6.2926932088532022</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="B69" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D69" s="1">
-        <v>0.64800000000000002</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E69" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.69</v>
       </c>
       <c r="F69" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J69" s="1">
-        <v>688</v>
+        <v>882</v>
       </c>
       <c r="K69" s="2">
-        <v>756.83344</v>
+        <v>1030.5468000000001</v>
       </c>
       <c r="L69" s="2">
-        <v>624.49486861250705</v>
+        <v>891.74943332927899</v>
       </c>
       <c r="M69" s="2">
-        <v>656.54203873198196</v>
+        <v>826.272842864008</v>
       </c>
       <c r="N69" cm="1">
         <f t="array" ref="N69">_xlfn.STDEV.S(IF($B$2:$B$179=B69,$J$2:$J$179))</f>
-        <v>80.727938162695565</v>
+        <v>73.898579147369261</v>
       </c>
       <c r="O69" cm="1">
         <f t="array" ref="O69">AVERAGE(IF($B$2:$B$179=B69,$J$2:$J$179))</f>
-        <v>695</v>
+        <v>937</v>
       </c>
       <c r="P69">
-        <f t="shared" si="2"/>
-        <v>9.2678525878364351</v>
+        <f>N69/O69*SQRT(2/PI())*100</f>
+        <v>6.2926932088532022</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B70" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D70" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="E70" s="1">
-        <v>3.69</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H70" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1">
-        <v>908</v>
+        <v>779</v>
       </c>
       <c r="K70" s="2">
-        <v>1030.5468000000001</v>
+        <v>756.83344</v>
       </c>
       <c r="L70" s="2">
-        <v>988.75026983557495</v>
+        <v>631.38203410558697</v>
       </c>
       <c r="M70" s="2">
-        <v>997.38306167084397</v>
+        <v>655.60913581214902</v>
       </c>
       <c r="N70" cm="1">
         <f t="array" ref="N70">_xlfn.STDEV.S(IF($B$2:$B$179=B70,$J$2:$J$179))</f>
-        <v>73.898579147369261</v>
+        <v>80.727938162695565</v>
       </c>
       <c r="O70" cm="1">
         <f t="array" ref="O70">AVERAGE(IF($B$2:$B$179=B70,$J$2:$J$179))</f>
-        <v>937</v>
+        <v>695</v>
       </c>
       <c r="P70">
-        <f t="shared" si="2"/>
-        <v>6.2926932088532022</v>
+        <f>N70/O70*SQRT(2/PI())*100</f>
+        <v>9.2678525878364351</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B71" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D71" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="E71" s="1">
-        <v>3.69</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H71" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71" s="1">
-        <v>1021</v>
+        <v>618</v>
       </c>
       <c r="K71" s="2">
-        <v>1030.5468000000001</v>
+        <v>756.83344</v>
       </c>
       <c r="L71" s="2">
-        <v>931.86303156769395</v>
+        <v>658.11535218006497</v>
       </c>
       <c r="M71" s="2">
-        <v>959.96717718897605</v>
+        <v>656.11217498899703</v>
       </c>
       <c r="N71" cm="1">
         <f t="array" ref="N71">_xlfn.STDEV.S(IF($B$2:$B$179=B71,$J$2:$J$179))</f>
-        <v>73.898579147369261</v>
+        <v>80.727938162695565</v>
       </c>
       <c r="O71" cm="1">
         <f t="array" ref="O71">AVERAGE(IF($B$2:$B$179=B71,$J$2:$J$179))</f>
-        <v>937</v>
+        <v>695</v>
       </c>
       <c r="P71">
-        <f t="shared" si="2"/>
-        <v>6.2926932088532022</v>
+        <f>N71/O71*SQRT(2/PI())*100</f>
+        <v>9.2678525878364351</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B72" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D72" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="E72" s="1">
-        <v>3.69</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H72" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" s="1">
-        <v>882</v>
+        <v>688</v>
       </c>
       <c r="K72" s="2">
-        <v>1030.5468000000001</v>
+        <v>756.83344</v>
       </c>
       <c r="L72" s="2">
-        <v>891.74943332927899</v>
+        <v>624.49486861250705</v>
       </c>
       <c r="M72" s="2">
-        <v>826.272842864008</v>
+        <v>656.54203873198196</v>
       </c>
       <c r="N72" cm="1">
         <f t="array" ref="N72">_xlfn.STDEV.S(IF($B$2:$B$179=B72,$J$2:$J$179))</f>
-        <v>73.898579147369261</v>
+        <v>80.727938162695565</v>
       </c>
       <c r="O72" cm="1">
         <f t="array" ref="O72">AVERAGE(IF($B$2:$B$179=B72,$J$2:$J$179))</f>
-        <v>937</v>
+        <v>695</v>
       </c>
       <c r="P72">
-        <f t="shared" si="2"/>
-        <v>6.2926932088532022</v>
+        <f>N72/O72*SQRT(2/PI())*100</f>
+        <v>9.2678525878364351</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B73" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D73" s="1">
-        <v>0.58799999999999997</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E73" s="1">
-        <v>3.8</v>
+        <v>4.01</v>
       </c>
       <c r="F73" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G73" s="1">
         <v>35</v>
       </c>
       <c r="H73" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" s="1">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="K73" s="2">
-        <v>713.04894999999999</v>
+        <v>582.35720000000003</v>
       </c>
       <c r="L73" s="2">
-        <v>674.92567243823896</v>
+        <v>594.73855665774897</v>
       </c>
       <c r="M73" s="2">
-        <v>647.98570267500702</v>
+        <v>595.55418674800399</v>
       </c>
       <c r="N73" cm="1">
         <f t="array" ref="N73">_xlfn.STDEV.S(IF($B$2:$B$179=B73,$J$2:$J$179))</f>
-        <v>14.189197769195175</v>
+        <v>38.734136537856799</v>
       </c>
       <c r="O73" cm="1">
         <f t="array" ref="O73">AVERAGE(IF($B$2:$B$179=B73,$J$2:$J$179))</f>
-        <v>682.33333333333337</v>
+        <v>640.33333333333337</v>
       </c>
       <c r="P73">
-        <f t="shared" si="2"/>
-        <v>1.659209843217287</v>
+        <f>N73/O73*SQRT(2/PI())*100</f>
+        <v>4.8264502112836167</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D74" s="1">
-        <v>0.58799999999999997</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E74" s="1">
-        <v>3.8</v>
+        <v>4.01</v>
       </c>
       <c r="F74" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G74" s="1">
         <v>35</v>
       </c>
       <c r="H74" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="K74" s="2">
-        <v>713.04894999999999</v>
+        <v>582.35720000000003</v>
       </c>
       <c r="L74" s="2">
-        <v>676.44802536397196</v>
+        <v>611.32597783742199</v>
       </c>
       <c r="M74" s="2">
-        <v>641.60607359832295</v>
+        <v>613.00493042664505</v>
       </c>
       <c r="N74" cm="1">
         <f t="array" ref="N74">_xlfn.STDEV.S(IF($B$2:$B$179=B74,$J$2:$J$179))</f>
-        <v>14.189197769195175</v>
+        <v>38.734136537856799</v>
       </c>
       <c r="O74" cm="1">
         <f t="array" ref="O74">AVERAGE(IF($B$2:$B$179=B74,$J$2:$J$179))</f>
-        <v>682.33333333333337</v>
+        <v>640.33333333333337</v>
       </c>
       <c r="P74">
-        <f t="shared" si="2"/>
-        <v>1.659209843217287</v>
+        <f>N74/O74*SQRT(2/PI())*100</f>
+        <v>4.8264502112836167</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D75" s="1">
-        <v>0.58799999999999997</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E75" s="1">
-        <v>3.8</v>
+        <v>4.01</v>
       </c>
       <c r="F75" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G75" s="1">
         <v>35</v>
       </c>
       <c r="H75" s="1">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" s="1">
-        <v>695</v>
+        <v>598</v>
       </c>
       <c r="K75" s="2">
-        <v>713.04894999999999</v>
+        <v>582.35720000000003</v>
       </c>
       <c r="L75" s="2">
-        <v>634.96686197549195</v>
+        <v>640.57001593273503</v>
       </c>
       <c r="M75" s="2">
-        <v>603.47761921591098</v>
+        <v>657.71257173290201</v>
       </c>
       <c r="N75" cm="1">
         <f t="array" ref="N75">_xlfn.STDEV.S(IF($B$2:$B$179=B75,$J$2:$J$179))</f>
-        <v>14.189197769195175</v>
+        <v>38.734136537856799</v>
       </c>
       <c r="O75" cm="1">
         <f t="array" ref="O75">AVERAGE(IF($B$2:$B$179=B75,$J$2:$J$179))</f>
-        <v>682.33333333333337</v>
+        <v>640.33333333333337</v>
       </c>
       <c r="P75">
-        <f t="shared" si="2"/>
-        <v>1.659209843217287</v>
+        <f>N75/O75*SQRT(2/PI())*100</f>
+        <v>4.8264502112836167</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B76" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D76" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E76" s="1">
-        <v>4.01</v>
+        <v>3.8</v>
       </c>
       <c r="F76" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G76" s="1">
         <v>35</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="K76" s="2">
-        <v>582.35720000000003</v>
+        <v>713.04894999999999</v>
       </c>
       <c r="L76" s="2">
-        <v>594.73855665774897</v>
+        <v>674.92567243823896</v>
       </c>
       <c r="M76" s="2">
-        <v>595.55418674800399</v>
+        <v>647.98570267500702</v>
       </c>
       <c r="N76" cm="1">
         <f t="array" ref="N76">_xlfn.STDEV.S(IF($B$2:$B$179=B76,$J$2:$J$179))</f>
-        <v>38.734136537856799</v>
+        <v>14.189197769195175</v>
       </c>
       <c r="O76" cm="1">
         <f t="array" ref="O76">AVERAGE(IF($B$2:$B$179=B76,$J$2:$J$179))</f>
-        <v>640.33333333333337</v>
+        <v>682.33333333333337</v>
       </c>
       <c r="P76">
-        <f t="shared" si="2"/>
-        <v>4.8264502112836167</v>
+        <f>N76/O76*SQRT(2/PI())*100</f>
+        <v>1.659209843217287</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B77" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D77" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E77" s="1">
-        <v>4.01</v>
+        <v>3.8</v>
       </c>
       <c r="F77" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" s="1">
         <v>35</v>
       </c>
       <c r="H77" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I77" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" s="1">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="K77" s="2">
-        <v>582.35720000000003</v>
+        <v>713.04894999999999</v>
       </c>
       <c r="L77" s="2">
-        <v>611.32597783742199</v>
+        <v>676.44802536397196</v>
       </c>
       <c r="M77" s="2">
-        <v>613.00493042664505</v>
+        <v>641.60607359832295</v>
       </c>
       <c r="N77" cm="1">
         <f t="array" ref="N77">_xlfn.STDEV.S(IF($B$2:$B$179=B77,$J$2:$J$179))</f>
-        <v>38.734136537856799</v>
+        <v>14.189197769195175</v>
       </c>
       <c r="O77" cm="1">
         <f t="array" ref="O77">AVERAGE(IF($B$2:$B$179=B77,$J$2:$J$179))</f>
-        <v>640.33333333333337</v>
+        <v>682.33333333333337</v>
       </c>
       <c r="P77">
-        <f t="shared" si="2"/>
-        <v>4.8264502112836167</v>
+        <f>N77/O77*SQRT(2/PI())*100</f>
+        <v>1.659209843217287</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B78" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="D78" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E78" s="1">
-        <v>4.01</v>
+        <v>3.8</v>
       </c>
       <c r="F78" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G78" s="1">
         <v>35</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I78" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" s="1">
-        <v>598</v>
+        <v>695</v>
       </c>
       <c r="K78" s="2">
-        <v>582.35720000000003</v>
+        <v>713.04894999999999</v>
       </c>
       <c r="L78" s="2">
-        <v>640.57001593273503</v>
+        <v>634.96686197549195</v>
       </c>
       <c r="M78" s="2">
-        <v>657.71257173290201</v>
+        <v>603.47761921591098</v>
       </c>
       <c r="N78" cm="1">
         <f t="array" ref="N78">_xlfn.STDEV.S(IF($B$2:$B$179=B78,$J$2:$J$179))</f>
-        <v>38.734136537856799</v>
+        <v>14.189197769195175</v>
       </c>
       <c r="O78" cm="1">
         <f t="array" ref="O78">AVERAGE(IF($B$2:$B$179=B78,$J$2:$J$179))</f>
-        <v>640.33333333333337</v>
+        <v>682.33333333333337</v>
       </c>
       <c r="P78">
-        <f t="shared" si="2"/>
-        <v>4.8264502112836167</v>
+        <f>N78/O78*SQRT(2/PI())*100</f>
+        <v>1.659209843217287</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -4646,7 +4644,7 @@
         <v>700</v>
       </c>
       <c r="P79">
-        <f t="shared" si="2"/>
+        <f>N79/O79*SQRT(2/PI())*100</f>
         <v>1.6119702387078751</v>
       </c>
     </row>
@@ -4699,7 +4697,7 @@
         <v>700</v>
       </c>
       <c r="P80">
-        <f t="shared" si="2"/>
+        <f>N80/O80*SQRT(2/PI())*100</f>
         <v>1.6119702387078751</v>
       </c>
     </row>
@@ -4752,7 +4750,7 @@
         <v>519</v>
       </c>
       <c r="P81">
-        <f t="shared" si="2"/>
+        <f>N81/O81*SQRT(2/PI())*100</f>
         <v>6.7939731357443218</v>
       </c>
     </row>
@@ -4805,7 +4803,7 @@
         <v>519</v>
       </c>
       <c r="P82">
-        <f t="shared" si="2"/>
+        <f>N82/O82*SQRT(2/PI())*100</f>
         <v>6.7939731357443218</v>
       </c>
     </row>
@@ -4858,326 +4856,326 @@
         <v>519</v>
       </c>
       <c r="P83">
-        <f t="shared" si="2"/>
+        <f>N83/O83*SQRT(2/PI())*100</f>
         <v>6.7939731357443218</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B84" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="D84" s="1">
-        <v>0.42959999999999998</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E84" s="1">
-        <v>3.76</v>
+        <v>4.07</v>
       </c>
       <c r="F84" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G84" s="1">
         <v>35</v>
       </c>
       <c r="H84" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I84" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84" s="1">
-        <v>872</v>
+        <v>563</v>
       </c>
       <c r="K84" s="2">
-        <v>861.64873999999998</v>
+        <v>673.81823999999995</v>
       </c>
       <c r="L84" s="2">
-        <v>793.47658028225101</v>
+        <v>669.38884766775004</v>
       </c>
       <c r="M84" s="2">
-        <v>880.06422265364404</v>
+        <v>646.88531054651298</v>
       </c>
       <c r="N84" cm="1">
         <f t="array" ref="N84">_xlfn.STDEV.S(IF($B$2:$B$179=B84,$J$2:$J$179))</f>
-        <v>49.759421218498915</v>
+        <v>49.789557138018409</v>
       </c>
       <c r="O84" cm="1">
         <f t="array" ref="O84">AVERAGE(IF($B$2:$B$179=B84,$J$2:$J$179))</f>
-        <v>818</v>
+        <v>528</v>
       </c>
       <c r="P84">
-        <f t="shared" si="2"/>
-        <v>4.8535787218492406</v>
+        <f>N84/O84*SQRT(2/PI())*100</f>
+        <v>7.5239240397039762</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B85" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="D85" s="1">
-        <v>0.42959999999999998</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E85" s="1">
-        <v>3.76</v>
+        <v>4.07</v>
       </c>
       <c r="F85" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G85" s="1">
         <v>35</v>
       </c>
       <c r="H85" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I85" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85" s="1">
-        <v>774</v>
+        <v>550</v>
       </c>
       <c r="K85" s="2">
-        <v>861.64873999999998</v>
+        <v>673.81823999999995</v>
       </c>
       <c r="L85" s="2">
-        <v>713.740525949068</v>
+        <v>633.34490541659295</v>
       </c>
       <c r="M85" s="2">
-        <v>867.34340179772403</v>
+        <v>683.89738860302498</v>
       </c>
       <c r="N85" cm="1">
         <f t="array" ref="N85">_xlfn.STDEV.S(IF($B$2:$B$179=B85,$J$2:$J$179))</f>
-        <v>49.759421218498915</v>
+        <v>49.789557138018409</v>
       </c>
       <c r="O85" cm="1">
         <f t="array" ref="O85">AVERAGE(IF($B$2:$B$179=B85,$J$2:$J$179))</f>
-        <v>818</v>
+        <v>528</v>
       </c>
       <c r="P85">
-        <f t="shared" si="2"/>
-        <v>4.8535787218492406</v>
+        <f>N85/O85*SQRT(2/PI())*100</f>
+        <v>7.5239240397039762</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B86" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="D86" s="1">
-        <v>0.42959999999999998</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E86" s="1">
-        <v>3.76</v>
+        <v>4.07</v>
       </c>
       <c r="F86" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G86" s="1">
         <v>35</v>
       </c>
       <c r="H86" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I86" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J86" s="1">
-        <v>808</v>
+        <v>471</v>
       </c>
       <c r="K86" s="2">
-        <v>861.64873999999998</v>
+        <v>673.81823999999995</v>
       </c>
       <c r="L86" s="2">
-        <v>768.88984529514005</v>
+        <v>613.40918726074801</v>
       </c>
       <c r="M86" s="2">
-        <v>789.66809259757702</v>
+        <v>647.91067836224499</v>
       </c>
       <c r="N86" cm="1">
         <f t="array" ref="N86">_xlfn.STDEV.S(IF($B$2:$B$179=B86,$J$2:$J$179))</f>
-        <v>49.759421218498915</v>
+        <v>49.789557138018409</v>
       </c>
       <c r="O86" cm="1">
         <f t="array" ref="O86">AVERAGE(IF($B$2:$B$179=B86,$J$2:$J$179))</f>
-        <v>818</v>
+        <v>528</v>
       </c>
       <c r="P86">
-        <f t="shared" si="2"/>
-        <v>4.8535787218492406</v>
+        <f>N86/O86*SQRT(2/PI())*100</f>
+        <v>7.5239240397039762</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C87" s="1">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="D87" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.42959999999999998</v>
       </c>
       <c r="E87" s="1">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
       <c r="F87" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G87" s="1">
         <v>35</v>
       </c>
       <c r="H87" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I87" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J87" s="1">
-        <v>563</v>
+        <v>872</v>
       </c>
       <c r="K87" s="2">
-        <v>673.81823999999995</v>
+        <v>861.64873999999998</v>
       </c>
       <c r="L87" s="2">
-        <v>669.38884766775004</v>
+        <v>793.47658028225101</v>
       </c>
       <c r="M87" s="2">
-        <v>646.88531054651298</v>
+        <v>880.06422265364404</v>
       </c>
       <c r="N87" cm="1">
         <f t="array" ref="N87">_xlfn.STDEV.S(IF($B$2:$B$179=B87,$J$2:$J$179))</f>
-        <v>49.789557138018409</v>
+        <v>49.759421218498915</v>
       </c>
       <c r="O87" cm="1">
         <f t="array" ref="O87">AVERAGE(IF($B$2:$B$179=B87,$J$2:$J$179))</f>
-        <v>528</v>
+        <v>818</v>
       </c>
       <c r="P87">
-        <f t="shared" si="2"/>
-        <v>7.5239240397039762</v>
+        <f>N87/O87*SQRT(2/PI())*100</f>
+        <v>4.8535787218492406</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B88" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" s="1">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="D88" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.42959999999999998</v>
       </c>
       <c r="E88" s="1">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
       <c r="F88" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G88" s="1">
         <v>35</v>
       </c>
       <c r="H88" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I88" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1">
-        <v>550</v>
+        <v>774</v>
       </c>
       <c r="K88" s="2">
-        <v>673.81823999999995</v>
+        <v>861.64873999999998</v>
       </c>
       <c r="L88" s="2">
-        <v>633.34490541659295</v>
+        <v>713.740525949068</v>
       </c>
       <c r="M88" s="2">
-        <v>683.89738860302498</v>
+        <v>867.34340179772403</v>
       </c>
       <c r="N88" cm="1">
         <f t="array" ref="N88">_xlfn.STDEV.S(IF($B$2:$B$179=B88,$J$2:$J$179))</f>
-        <v>49.789557138018409</v>
+        <v>49.759421218498915</v>
       </c>
       <c r="O88" cm="1">
         <f t="array" ref="O88">AVERAGE(IF($B$2:$B$179=B88,$J$2:$J$179))</f>
-        <v>528</v>
+        <v>818</v>
       </c>
       <c r="P88">
-        <f t="shared" si="2"/>
-        <v>7.5239240397039762</v>
+        <f>N88/O88*SQRT(2/PI())*100</f>
+        <v>4.8535787218492406</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B89" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="D89" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.42959999999999998</v>
       </c>
       <c r="E89" s="1">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
       <c r="F89" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G89" s="1">
         <v>35</v>
       </c>
       <c r="H89" s="1">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="I89" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89" s="1">
-        <v>471</v>
+        <v>808</v>
       </c>
       <c r="K89" s="2">
-        <v>673.81823999999995</v>
+        <v>861.64873999999998</v>
       </c>
       <c r="L89" s="2">
-        <v>613.40918726074801</v>
+        <v>768.88984529514005</v>
       </c>
       <c r="M89" s="2">
-        <v>647.91067836224499</v>
+        <v>789.66809259757702</v>
       </c>
       <c r="N89" cm="1">
         <f t="array" ref="N89">_xlfn.STDEV.S(IF($B$2:$B$179=B89,$J$2:$J$179))</f>
-        <v>49.789557138018409</v>
+        <v>49.759421218498915</v>
       </c>
       <c r="O89" cm="1">
         <f t="array" ref="O89">AVERAGE(IF($B$2:$B$179=B89,$J$2:$J$179))</f>
-        <v>528</v>
+        <v>818</v>
       </c>
       <c r="P89">
-        <f t="shared" si="2"/>
-        <v>7.5239240397039762</v>
+        <f>N89/O89*SQRT(2/PI())*100</f>
+        <v>4.8535787218492406</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5229,7 +5227,7 @@
         <v>906.33333333333337</v>
       </c>
       <c r="P90">
-        <f t="shared" si="2"/>
+        <f>N90/O90*SQRT(2/PI())*100</f>
         <v>5.4448604203610547</v>
       </c>
     </row>
@@ -5282,7 +5280,7 @@
         <v>906.33333333333337</v>
       </c>
       <c r="P91">
-        <f t="shared" si="2"/>
+        <f>N91/O91*SQRT(2/PI())*100</f>
         <v>5.4448604203610547</v>
       </c>
     </row>
@@ -5335,7 +5333,7 @@
         <v>906.33333333333337</v>
       </c>
       <c r="P92">
-        <f t="shared" si="2"/>
+        <f>N92/O92*SQRT(2/PI())*100</f>
         <v>5.4448604203610547</v>
       </c>
     </row>
@@ -5388,7 +5386,7 @@
         <v>648.5</v>
       </c>
       <c r="P93">
-        <f t="shared" si="2"/>
+        <f>N93/O93*SQRT(2/PI())*100</f>
         <v>0.26099749431661817</v>
       </c>
     </row>
@@ -5441,7 +5439,7 @@
         <v>648.5</v>
       </c>
       <c r="P94">
-        <f t="shared" si="2"/>
+        <f>N94/O94*SQRT(2/PI())*100</f>
         <v>0.26099749431661817</v>
       </c>
     </row>
@@ -5494,7 +5492,7 @@
         <v>961</v>
       </c>
       <c r="P95">
-        <f t="shared" si="2"/>
+        <f>N95/O95*SQRT(2/PI())*100</f>
         <v>0.65900232762405087</v>
       </c>
     </row>
@@ -5547,7 +5545,7 @@
         <v>961</v>
       </c>
       <c r="P96">
-        <f t="shared" si="2"/>
+        <f>N96/O96*SQRT(2/PI())*100</f>
         <v>0.65900232762405087</v>
       </c>
     </row>
@@ -5600,7 +5598,7 @@
         <v>961</v>
       </c>
       <c r="P97">
-        <f t="shared" si="2"/>
+        <f>N97/O97*SQRT(2/PI())*100</f>
         <v>0.65900232762405087</v>
       </c>
     </row>
@@ -5653,7 +5651,7 @@
         <v>1004.5</v>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:P129" si="3">N98/O98*SQRT(2/PI())*100</f>
+        <f>N98/O98*SQRT(2/PI())*100</f>
         <v>1.0671579977508581</v>
       </c>
     </row>
@@ -5706,7 +5704,7 @@
         <v>1004.5</v>
       </c>
       <c r="P99">
-        <f t="shared" si="3"/>
+        <f>N99/O99*SQRT(2/PI())*100</f>
         <v>1.0671579977508581</v>
       </c>
     </row>
@@ -5759,7 +5757,7 @@
         <v>876.33333333333337</v>
       </c>
       <c r="P100">
-        <f t="shared" si="3"/>
+        <f>N100/O100*SQRT(2/PI())*100</f>
         <v>1.8420833882474501</v>
       </c>
     </row>
@@ -5812,7 +5810,7 @@
         <v>876.33333333333337</v>
       </c>
       <c r="P101">
-        <f t="shared" si="3"/>
+        <f>N101/O101*SQRT(2/PI())*100</f>
         <v>1.8420833882474501</v>
       </c>
     </row>
@@ -5865,7 +5863,7 @@
         <v>876.33333333333337</v>
       </c>
       <c r="P102">
-        <f t="shared" si="3"/>
+        <f>N102/O102*SQRT(2/PI())*100</f>
         <v>1.8420833882474501</v>
       </c>
     </row>
@@ -5918,7 +5916,7 @@
         <v>553.33333333333337</v>
       </c>
       <c r="P103">
-        <f t="shared" si="3"/>
+        <f>N103/O103*SQRT(2/PI())*100</f>
         <v>2.5807996707497352</v>
       </c>
     </row>
@@ -5971,7 +5969,7 @@
         <v>553.33333333333337</v>
       </c>
       <c r="P104">
-        <f t="shared" si="3"/>
+        <f>N104/O104*SQRT(2/PI())*100</f>
         <v>2.5807996707497352</v>
       </c>
     </row>
@@ -6024,7 +6022,7 @@
         <v>553.33333333333337</v>
       </c>
       <c r="P105">
-        <f t="shared" si="3"/>
+        <f>N105/O105*SQRT(2/PI())*100</f>
         <v>2.5807996707497352</v>
       </c>
     </row>
@@ -6077,7 +6075,7 @@
         <v>1085.6666666666667</v>
       </c>
       <c r="P106">
-        <f t="shared" si="3"/>
+        <f>N106/O106*SQRT(2/PI())*100</f>
         <v>3.4583190462448337</v>
       </c>
     </row>
@@ -6130,7 +6128,7 @@
         <v>1085.6666666666667</v>
       </c>
       <c r="P107">
-        <f t="shared" si="3"/>
+        <f>N107/O107*SQRT(2/PI())*100</f>
         <v>3.4583190462448337</v>
       </c>
     </row>
@@ -6183,7 +6181,7 @@
         <v>1085.6666666666667</v>
       </c>
       <c r="P108">
-        <f t="shared" si="3"/>
+        <f>N108/O108*SQRT(2/PI())*100</f>
         <v>3.4583190462448337</v>
       </c>
     </row>
@@ -6236,7 +6234,7 @@
         <v>609</v>
       </c>
       <c r="P109">
-        <f t="shared" si="3"/>
+        <f>N109/O109*SQRT(2/PI())*100</f>
         <v>1.5884788481440715</v>
       </c>
     </row>
@@ -6289,7 +6287,7 @@
         <v>609</v>
       </c>
       <c r="P110">
-        <f t="shared" si="3"/>
+        <f>N110/O110*SQRT(2/PI())*100</f>
         <v>1.5884788481440715</v>
       </c>
     </row>
@@ -6342,7 +6340,7 @@
         <v>609</v>
       </c>
       <c r="P111">
-        <f t="shared" si="3"/>
+        <f>N111/O111*SQRT(2/PI())*100</f>
         <v>1.5884788481440715</v>
       </c>
     </row>
@@ -6395,7 +6393,7 @@
         <v>659.5</v>
       </c>
       <c r="P112">
-        <f t="shared" si="3"/>
+        <f>N112/O112*SQRT(2/PI())*100</f>
         <v>19.077221702979479</v>
       </c>
     </row>
@@ -6448,7 +6446,7 @@
         <v>659.5</v>
       </c>
       <c r="P113">
-        <f t="shared" si="3"/>
+        <f>N113/O113*SQRT(2/PI())*100</f>
         <v>19.077221702979479</v>
       </c>
     </row>
@@ -6501,7 +6499,7 @@
         <v>633</v>
       </c>
       <c r="P114">
-        <f t="shared" si="3"/>
+        <f>N114/O114*SQRT(2/PI())*100</f>
         <v>2.5178091026039335</v>
       </c>
     </row>
@@ -6554,7 +6552,7 @@
         <v>633</v>
       </c>
       <c r="P115">
-        <f t="shared" si="3"/>
+        <f>N115/O115*SQRT(2/PI())*100</f>
         <v>2.5178091026039335</v>
       </c>
     </row>
@@ -6607,7 +6605,7 @@
         <v>633</v>
       </c>
       <c r="P116">
-        <f t="shared" si="3"/>
+        <f>N116/O116*SQRT(2/PI())*100</f>
         <v>2.5178091026039335</v>
       </c>
     </row>
@@ -6660,7 +6658,7 @@
         <v>855.66666666666663</v>
       </c>
       <c r="P117">
-        <f t="shared" si="3"/>
+        <f>N117/O117*SQRT(2/PI())*100</f>
         <v>4.9660842372099205</v>
       </c>
     </row>
@@ -6713,7 +6711,7 @@
         <v>855.66666666666663</v>
       </c>
       <c r="P118">
-        <f t="shared" si="3"/>
+        <f>N118/O118*SQRT(2/PI())*100</f>
         <v>4.9660842372099205</v>
       </c>
     </row>
@@ -6766,7 +6764,7 @@
         <v>855.66666666666663</v>
       </c>
       <c r="P119">
-        <f t="shared" si="3"/>
+        <f>N119/O119*SQRT(2/PI())*100</f>
         <v>4.9660842372099205</v>
       </c>
     </row>
@@ -6819,7 +6817,7 @@
         <v>639.66666666666663</v>
       </c>
       <c r="P120">
-        <f t="shared" si="3"/>
+        <f>N120/O120*SQRT(2/PI())*100</f>
         <v>7.1189745975795891</v>
       </c>
     </row>
@@ -6872,7 +6870,7 @@
         <v>639.66666666666663</v>
       </c>
       <c r="P121">
-        <f t="shared" si="3"/>
+        <f>N121/O121*SQRT(2/PI())*100</f>
         <v>7.1189745975795891</v>
       </c>
     </row>
@@ -6925,7 +6923,7 @@
         <v>639.66666666666663</v>
       </c>
       <c r="P122">
-        <f t="shared" si="3"/>
+        <f>N122/O122*SQRT(2/PI())*100</f>
         <v>7.1189745975795891</v>
       </c>
     </row>
@@ -6978,7 +6976,7 @@
         <v>626.5</v>
       </c>
       <c r="P123">
-        <f t="shared" si="3"/>
+        <f>N123/O123*SQRT(2/PI())*100</f>
         <v>5.4933064000659426</v>
       </c>
     </row>
@@ -7031,7 +7029,7 @@
         <v>626.5</v>
       </c>
       <c r="P124">
-        <f t="shared" si="3"/>
+        <f>N124/O124*SQRT(2/PI())*100</f>
         <v>5.4933064000659426</v>
       </c>
     </row>
@@ -7084,7 +7082,7 @@
         <v>731</v>
       </c>
       <c r="P125">
-        <f t="shared" si="3"/>
+        <f>N125/O125*SQRT(2/PI())*100</f>
         <v>3.7046648440892347</v>
       </c>
     </row>
@@ -7137,7 +7135,7 @@
         <v>731</v>
       </c>
       <c r="P126">
-        <f t="shared" si="3"/>
+        <f>N126/O126*SQRT(2/PI())*100</f>
         <v>3.7046648440892347</v>
       </c>
     </row>
@@ -7190,7 +7188,7 @@
         <v>832.33333333333337</v>
       </c>
       <c r="P127">
-        <f t="shared" si="3"/>
+        <f>N127/O127*SQRT(2/PI())*100</f>
         <v>6.602833881970251</v>
       </c>
     </row>
@@ -7243,7 +7241,7 @@
         <v>832.33333333333337</v>
       </c>
       <c r="P128">
-        <f t="shared" si="3"/>
+        <f>N128/O128*SQRT(2/PI())*100</f>
         <v>6.602833881970251</v>
       </c>
     </row>
@@ -7296,7 +7294,7 @@
         <v>832.33333333333337</v>
       </c>
       <c r="P129">
-        <f t="shared" si="3"/>
+        <f>N129/O129*SQRT(2/PI())*100</f>
         <v>6.602833881970251</v>
       </c>
     </row>
@@ -7349,7 +7347,7 @@
         <v>627</v>
       </c>
       <c r="P130">
-        <f t="shared" ref="P130:P161" si="4">N130/O130*SQRT(2/PI())*100</f>
+        <f>N130/O130*SQRT(2/PI())*100</f>
         <v>6.6233395980649767</v>
       </c>
     </row>
@@ -7402,7 +7400,7 @@
         <v>627</v>
       </c>
       <c r="P131">
-        <f t="shared" si="4"/>
+        <f>N131/O131*SQRT(2/PI())*100</f>
         <v>6.6233395980649767</v>
       </c>
     </row>
@@ -7455,7 +7453,7 @@
         <v>627</v>
       </c>
       <c r="P132">
-        <f t="shared" si="4"/>
+        <f>N132/O132*SQRT(2/PI())*100</f>
         <v>6.6233395980649767</v>
       </c>
     </row>
@@ -7508,7 +7506,7 @@
         <v>615</v>
       </c>
       <c r="P133">
-        <f t="shared" si="4"/>
+        <f>N133/O133*SQRT(2/PI())*100</f>
         <v>11.28267285763911</v>
       </c>
     </row>
@@ -7561,7 +7559,7 @@
         <v>615</v>
       </c>
       <c r="P134">
-        <f t="shared" si="4"/>
+        <f>N134/O134*SQRT(2/PI())*100</f>
         <v>11.28267285763911</v>
       </c>
     </row>
@@ -7614,7 +7612,7 @@
         <v>615</v>
       </c>
       <c r="P135">
-        <f t="shared" si="4"/>
+        <f>N135/O135*SQRT(2/PI())*100</f>
         <v>11.28267285763911</v>
       </c>
     </row>
@@ -7667,7 +7665,7 @@
         <v>855</v>
       </c>
       <c r="P136">
-        <f t="shared" si="4"/>
+        <f>N136/O136*SQRT(2/PI())*100</f>
         <v>0.5676423754333475</v>
       </c>
     </row>
@@ -7720,7 +7718,7 @@
         <v>855</v>
       </c>
       <c r="P137">
-        <f t="shared" si="4"/>
+        <f>N137/O137*SQRT(2/PI())*100</f>
         <v>0.5676423754333475</v>
       </c>
     </row>
@@ -7773,7 +7771,7 @@
         <v>855</v>
       </c>
       <c r="P138">
-        <f t="shared" si="4"/>
+        <f>N138/O138*SQRT(2/PI())*100</f>
         <v>0.5676423754333475</v>
       </c>
     </row>
@@ -7826,7 +7824,7 @@
         <v>926.33333333333337</v>
       </c>
       <c r="P139">
-        <f t="shared" si="4"/>
+        <f>N139/O139*SQRT(2/PI())*100</f>
         <v>5.0491748681064923</v>
       </c>
     </row>
@@ -7879,7 +7877,7 @@
         <v>926.33333333333337</v>
       </c>
       <c r="P140">
-        <f t="shared" si="4"/>
+        <f>N140/O140*SQRT(2/PI())*100</f>
         <v>5.0491748681064923</v>
       </c>
     </row>
@@ -7932,7 +7930,7 @@
         <v>926.33333333333337</v>
       </c>
       <c r="P141">
-        <f t="shared" si="4"/>
+        <f>N141/O141*SQRT(2/PI())*100</f>
         <v>5.0491748681064923</v>
       </c>
     </row>
@@ -7985,7 +7983,7 @@
         <v>755</v>
       </c>
       <c r="P142">
-        <f t="shared" si="4"/>
+        <f>N142/O142*SQRT(2/PI())*100</f>
         <v>8.2199806874507537</v>
       </c>
     </row>
@@ -8038,7 +8036,7 @@
         <v>755</v>
       </c>
       <c r="P143">
-        <f t="shared" si="4"/>
+        <f>N143/O143*SQRT(2/PI())*100</f>
         <v>8.2199806874507537</v>
       </c>
     </row>
@@ -8091,7 +8089,7 @@
         <v>858.33333333333337</v>
       </c>
       <c r="P144">
-        <f t="shared" si="4"/>
+        <f>N144/O144*SQRT(2/PI())*100</f>
         <v>3.5193112942357891</v>
       </c>
     </row>
@@ -8144,7 +8142,7 @@
         <v>858.33333333333337</v>
       </c>
       <c r="P145">
-        <f t="shared" si="4"/>
+        <f>N145/O145*SQRT(2/PI())*100</f>
         <v>3.5193112942357891</v>
       </c>
     </row>
@@ -8197,7 +8195,7 @@
         <v>858.33333333333337</v>
       </c>
       <c r="P146">
-        <f t="shared" si="4"/>
+        <f>N146/O146*SQRT(2/PI())*100</f>
         <v>3.5193112942357891</v>
       </c>
     </row>
@@ -8250,7 +8248,7 @@
         <v>944.66666666666663</v>
       </c>
       <c r="P147">
-        <f t="shared" si="4"/>
+        <f>N147/O147*SQRT(2/PI())*100</f>
         <v>8.8384302720922232</v>
       </c>
     </row>
@@ -8303,7 +8301,7 @@
         <v>944.66666666666663</v>
       </c>
       <c r="P148">
-        <f t="shared" si="4"/>
+        <f>N148/O148*SQRT(2/PI())*100</f>
         <v>8.8384302720922232</v>
       </c>
     </row>
@@ -8356,7 +8354,7 @@
         <v>944.66666666666663</v>
       </c>
       <c r="P149">
-        <f t="shared" si="4"/>
+        <f>N149/O149*SQRT(2/PI())*100</f>
         <v>8.8384302720922232</v>
       </c>
     </row>
@@ -8409,7 +8407,7 @@
         <v>614.66666666666663</v>
       </c>
       <c r="P150">
-        <f t="shared" si="4"/>
+        <f>N150/O150*SQRT(2/PI())*100</f>
         <v>6.5733633392484325</v>
       </c>
     </row>
@@ -8462,7 +8460,7 @@
         <v>614.66666666666663</v>
       </c>
       <c r="P151">
-        <f t="shared" si="4"/>
+        <f>N151/O151*SQRT(2/PI())*100</f>
         <v>6.5733633392484325</v>
       </c>
     </row>
@@ -8515,7 +8513,7 @@
         <v>614.66666666666663</v>
       </c>
       <c r="P152">
-        <f t="shared" si="4"/>
+        <f>N152/O152*SQRT(2/PI())*100</f>
         <v>6.5733633392484325</v>
       </c>
     </row>
@@ -8568,7 +8566,7 @@
         <v>850.33333333333337</v>
       </c>
       <c r="P153">
-        <f t="shared" si="4"/>
+        <f>N153/O153*SQRT(2/PI())*100</f>
         <v>7.4063886683931432</v>
       </c>
     </row>
@@ -8621,7 +8619,7 @@
         <v>850.33333333333337</v>
       </c>
       <c r="P154">
-        <f t="shared" si="4"/>
+        <f>N154/O154*SQRT(2/PI())*100</f>
         <v>7.4063886683931432</v>
       </c>
     </row>
@@ -8674,7 +8672,7 @@
         <v>850.33333333333337</v>
       </c>
       <c r="P155">
-        <f t="shared" si="4"/>
+        <f>N155/O155*SQRT(2/PI())*100</f>
         <v>7.4063886683931432</v>
       </c>
     </row>
@@ -8727,7 +8725,7 @@
         <v>630.66666666666663</v>
       </c>
       <c r="P156">
-        <f t="shared" si="4"/>
+        <f>N156/O156*SQRT(2/PI())*100</f>
         <v>3.6935579800006391</v>
       </c>
     </row>
@@ -8780,7 +8778,7 @@
         <v>630.66666666666663</v>
       </c>
       <c r="P157">
-        <f t="shared" si="4"/>
+        <f>N157/O157*SQRT(2/PI())*100</f>
         <v>3.6935579800006391</v>
       </c>
     </row>
@@ -8833,7 +8831,7 @@
         <v>630.66666666666663</v>
       </c>
       <c r="P158">
-        <f t="shared" si="4"/>
+        <f>N158/O158*SQRT(2/PI())*100</f>
         <v>3.6935579800006391</v>
       </c>
     </row>
@@ -8886,7 +8884,7 @@
         <v>935.33333333333337</v>
       </c>
       <c r="P159">
-        <f t="shared" si="4"/>
+        <f>N159/O159*SQRT(2/PI())*100</f>
         <v>8.5476693740715834</v>
       </c>
     </row>
@@ -8939,7 +8937,7 @@
         <v>935.33333333333337</v>
       </c>
       <c r="P160">
-        <f t="shared" si="4"/>
+        <f>N160/O160*SQRT(2/PI())*100</f>
         <v>8.5476693740715834</v>
       </c>
     </row>
@@ -8992,7 +8990,7 @@
         <v>935.33333333333337</v>
       </c>
       <c r="P161">
-        <f t="shared" si="4"/>
+        <f>N161/O161*SQRT(2/PI())*100</f>
         <v>8.5476693740715834</v>
       </c>
     </row>
@@ -9045,7 +9043,7 @@
         <v>793.66666666666663</v>
       </c>
       <c r="P162">
-        <f t="shared" ref="P162:P193" si="5">N162/O162*SQRT(2/PI())*100</f>
+        <f>N162/O162*SQRT(2/PI())*100</f>
         <v>8.8114725850298949</v>
       </c>
     </row>
@@ -9098,7 +9096,7 @@
         <v>793.66666666666663</v>
       </c>
       <c r="P163">
-        <f t="shared" si="5"/>
+        <f>N163/O163*SQRT(2/PI())*100</f>
         <v>8.8114725850298949</v>
       </c>
     </row>
@@ -9151,7 +9149,7 @@
         <v>793.66666666666663</v>
       </c>
       <c r="P164">
-        <f t="shared" si="5"/>
+        <f>N164/O164*SQRT(2/PI())*100</f>
         <v>8.8114725850298949</v>
       </c>
     </row>
@@ -9204,7 +9202,7 @@
         <v>695.66666666666663</v>
       </c>
       <c r="P165">
-        <f t="shared" si="5"/>
+        <f>N165/O165*SQRT(2/PI())*100</f>
         <v>8.4953243028011318</v>
       </c>
     </row>
@@ -9257,7 +9255,7 @@
         <v>695.66666666666663</v>
       </c>
       <c r="P166">
-        <f t="shared" si="5"/>
+        <f>N166/O166*SQRT(2/PI())*100</f>
         <v>8.4953243028011318</v>
       </c>
     </row>
@@ -9310,7 +9308,7 @@
         <v>695.66666666666663</v>
       </c>
       <c r="P167">
-        <f t="shared" si="5"/>
+        <f>N167/O167*SQRT(2/PI())*100</f>
         <v>8.4953243028011318</v>
       </c>
     </row>
@@ -9363,7 +9361,7 @@
         <v>1172.6666666666667</v>
       </c>
       <c r="P168">
-        <f t="shared" si="5"/>
+        <f>N168/O168*SQRT(2/PI())*100</f>
         <v>9.5023502976147984</v>
       </c>
     </row>
@@ -9416,7 +9414,7 @@
         <v>1172.6666666666667</v>
       </c>
       <c r="P169">
-        <f t="shared" si="5"/>
+        <f>N169/O169*SQRT(2/PI())*100</f>
         <v>9.5023502976147984</v>
       </c>
     </row>
@@ -9469,7 +9467,7 @@
         <v>1172.6666666666667</v>
       </c>
       <c r="P170">
-        <f t="shared" si="5"/>
+        <f>N170/O170*SQRT(2/PI())*100</f>
         <v>9.5023502976147984</v>
       </c>
     </row>
@@ -9522,7 +9520,7 @@
         <v>967</v>
       </c>
       <c r="P171">
-        <f t="shared" si="5"/>
+        <f>N171/O171*SQRT(2/PI())*100</f>
         <v>5.6180461320471844</v>
       </c>
     </row>
@@ -9575,7 +9573,7 @@
         <v>967</v>
       </c>
       <c r="P172">
-        <f t="shared" si="5"/>
+        <f>N172/O172*SQRT(2/PI())*100</f>
         <v>5.6180461320471844</v>
       </c>
     </row>
@@ -9628,7 +9626,7 @@
         <v>967</v>
       </c>
       <c r="P173">
-        <f t="shared" si="5"/>
+        <f>N173/O173*SQRT(2/PI())*100</f>
         <v>5.6180461320471844</v>
       </c>
     </row>
@@ -9681,7 +9679,7 @@
         <v>837</v>
       </c>
       <c r="P174">
-        <f t="shared" si="5"/>
+        <f>N174/O174*SQRT(2/PI())*100</f>
         <v>6.0267291991638903</v>
       </c>
     </row>
@@ -9734,7 +9732,7 @@
         <v>837</v>
       </c>
       <c r="P175">
-        <f t="shared" si="5"/>
+        <f>N175/O175*SQRT(2/PI())*100</f>
         <v>6.0267291991638903</v>
       </c>
     </row>
@@ -9787,7 +9785,7 @@
         <v>837</v>
       </c>
       <c r="P176">
-        <f t="shared" si="5"/>
+        <f>N176/O176*SQRT(2/PI())*100</f>
         <v>6.0267291991638903</v>
       </c>
     </row>
@@ -9840,7 +9838,7 @@
         <v>1061.6666666666667</v>
       </c>
       <c r="P177">
-        <f t="shared" si="5"/>
+        <f>N177/O177*SQRT(2/PI())*100</f>
         <v>11.536643123041436</v>
       </c>
     </row>
@@ -9893,7 +9891,7 @@
         <v>1061.6666666666667</v>
       </c>
       <c r="P178">
-        <f t="shared" si="5"/>
+        <f>N178/O178*SQRT(2/PI())*100</f>
         <v>11.536643123041436</v>
       </c>
     </row>
@@ -9946,13 +9944,13 @@
         <v>1061.6666666666667</v>
       </c>
       <c r="P179">
-        <f t="shared" si="5"/>
+        <f>N179/O179*SQRT(2/PI())*100</f>
         <v>11.536643123041436</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M179">
-    <sortCondition ref="C2:C179"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P179">
+    <sortCondition ref="B2:B179"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
